--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A33F6-BF17-44D8-878E-417B3C03691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0D94D-7E7A-4A72-AEE4-3F09ADEB49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abilities!$A$10:$FS$312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$KS$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$KX$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="2986">
   <si>
     <t>Rank</t>
   </si>
@@ -9211,7 +9211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -9346,11 +9346,118 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9662,13 +9769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KS174"/>
+  <dimension ref="A1:KX174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="JV4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
+      <selection pane="bottomRight" activeCell="KB4" sqref="KB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9696,14 +9803,20 @@
     <col min="28" max="28" width="21" style="6" customWidth="1"/>
     <col min="29" max="109" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="110" max="268" width="9.140625" style="6"/>
-    <col min="269" max="269" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="270" max="275" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="278" max="16384" width="9.140625" style="6"/>
+    <col min="269" max="269" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="271" max="276" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="280" max="292" width="9.140625" style="6"/>
+    <col min="293" max="293" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="294" max="308" width="9.140625" style="6"/>
+    <col min="309" max="309" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="310" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:305" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:310" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>120</v>
       </c>
@@ -9879,10 +9992,10 @@
       <c r="JF1" s="20"/>
       <c r="JG1" s="20"/>
       <c r="JH1" s="20"/>
-      <c r="JI1" s="20" t="s">
+      <c r="JI1" s="60"/>
+      <c r="JJ1" s="20" t="s">
         <v>1655</v>
       </c>
-      <c r="JJ1" s="20"/>
       <c r="JK1" s="20"/>
       <c r="JL1" s="20"/>
       <c r="JM1" s="20"/>
@@ -9890,22 +10003,30 @@
       <c r="JO1" s="20"/>
       <c r="JP1" s="20"/>
       <c r="JQ1" s="20"/>
-      <c r="JR1" s="20" t="s">
+      <c r="JR1" s="20"/>
+      <c r="JS1" s="60"/>
+      <c r="JT1" s="20" t="s">
         <v>1659</v>
       </c>
-      <c r="KD1" s="19" t="s">
+      <c r="KG1" s="60"/>
+      <c r="KH1" s="19" t="s">
         <v>1660</v>
       </c>
-      <c r="KS1" s="19" t="s">
+      <c r="KW1" s="60"/>
+      <c r="KX1" s="19" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="2" spans="1:305" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:310" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:305" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JI2" s="61"/>
+      <c r="JS2" s="61"/>
+      <c r="KG2" s="61"/>
+      <c r="KW2" s="61"/>
+    </row>
+    <row r="3" spans="1:310" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>121</v>
       </c>
@@ -10710,119 +10831,134 @@
       <c r="JH3" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="JI3" s="22" t="s">
+      <c r="JI3" s="61" t="s">
+        <v>1535</v>
+      </c>
+      <c r="JJ3" s="22" t="s">
         <v>1390</v>
       </c>
-      <c r="JJ3" s="22" t="s">
+      <c r="JK3" s="22" t="s">
         <v>1391</v>
       </c>
-      <c r="JK3" s="22" t="s">
+      <c r="JL3" s="22" t="s">
         <v>1392</v>
       </c>
-      <c r="JL3" s="22" t="s">
+      <c r="JM3" s="22" t="s">
         <v>1393</v>
       </c>
-      <c r="JM3" s="22" t="s">
+      <c r="JN3" s="22" t="s">
         <v>1394</v>
       </c>
-      <c r="JN3" s="22" t="s">
+      <c r="JO3" s="22" t="s">
         <v>1395</v>
       </c>
-      <c r="JO3" s="22" t="s">
+      <c r="JP3" s="22" t="s">
         <v>1396</v>
       </c>
-      <c r="JP3" s="22" t="s">
+      <c r="JQ3" s="22" t="s">
         <v>1397</v>
       </c>
-      <c r="JQ3" s="22" t="s">
+      <c r="JR3" s="22" t="s">
         <v>1398</v>
       </c>
-      <c r="JR3" s="21" t="s">
+      <c r="JS3" s="61" t="s">
+        <v>1535</v>
+      </c>
+      <c r="JT3" s="21" t="s">
         <v>1378</v>
       </c>
-      <c r="JS3" s="21" t="s">
+      <c r="JU3" s="21" t="s">
         <v>1380</v>
       </c>
-      <c r="JT3" s="21" t="s">
+      <c r="JV3" s="21" t="s">
         <v>1382</v>
       </c>
-      <c r="JU3" s="21" t="s">
+      <c r="JW3" s="21" t="s">
         <v>1501</v>
       </c>
-      <c r="JV3" s="21" t="s">
+      <c r="JX3" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="JW3" s="21" t="s">
+      <c r="JY3" s="21" t="s">
         <v>1384</v>
       </c>
-      <c r="JX3" s="21" t="s">
+      <c r="JZ3" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="JY3" s="21" t="s">
+      <c r="KA3" s="21" t="s">
         <v>1505</v>
       </c>
-      <c r="JZ3" s="21" t="s">
+      <c r="KB3" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="KA3" s="21" t="s">
+      <c r="KC3" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="KB3" s="21" t="s">
+      <c r="KD3" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="KC3" s="21" t="s">
+      <c r="KE3" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="KD3" s="21" t="s">
+      <c r="KF3" s="21" t="s">
+        <v>2570</v>
+      </c>
+      <c r="KG3" s="61" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KH3" s="21" t="s">
         <v>1654</v>
       </c>
-      <c r="KE3" s="21" t="s">
+      <c r="KI3" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="KF3" s="21" t="s">
+      <c r="KJ3" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="KG3" s="21" t="s">
+      <c r="KK3" s="21" t="s">
         <v>1505</v>
       </c>
-      <c r="KH3" s="21" t="s">
+      <c r="KL3" s="21" t="s">
         <v>1500</v>
       </c>
-      <c r="KI3" s="21" t="s">
+      <c r="KM3" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="KJ3" s="21" t="s">
+      <c r="KN3" s="21" t="s">
         <v>1503</v>
       </c>
-      <c r="KK3" s="21" t="s">
+      <c r="KO3" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="KL3" s="21" t="s">
+      <c r="KP3" s="21" t="s">
         <v>1386</v>
       </c>
-      <c r="KM3" s="21" t="s">
+      <c r="KQ3" s="21" t="s">
         <v>1387</v>
       </c>
-      <c r="KN3" s="21" t="s">
+      <c r="KR3" s="21" t="s">
         <v>1385</v>
       </c>
-      <c r="KO3" s="21" t="s">
+      <c r="KS3" s="21" t="s">
         <v>1602</v>
       </c>
-      <c r="KP3" s="21" t="s">
+      <c r="KT3" s="21" t="s">
         <v>1653</v>
       </c>
-      <c r="KQ3" s="21" t="s">
+      <c r="KU3" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="KR3" s="21" t="s">
+      <c r="KV3" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="KS3" s="22" t="s">
+      <c r="KW3" s="61" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX3" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -11233,32 +11369,35 @@
       <c r="JF4" s="7"/>
       <c r="JG4" s="7"/>
       <c r="JH4" s="7"/>
-      <c r="JR4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JW4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX4" s="6" t="s">
+      <c r="JT4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH4" s="6" t="s">
+      <c r="KL4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS4" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KP4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX4" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -11667,23 +11806,26 @@
       <c r="JF5" s="7"/>
       <c r="JG5" s="7"/>
       <c r="JH5" s="7"/>
-      <c r="JR5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KA5" s="6" t="s">
+      <c r="JT5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC5" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KQ5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU5" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX5" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -12082,26 +12224,29 @@
       <c r="JF6" s="7"/>
       <c r="JG6" s="7"/>
       <c r="JH6" s="7"/>
-      <c r="JR6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS6" s="6" t="s">
+      <c r="JT6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU6" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JV6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL6" s="6" t="s">
+      <c r="JX6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP6" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS6" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KQ6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX6" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
@@ -12506,23 +12651,26 @@
       <c r="JF7" s="7"/>
       <c r="JG7" s="7"/>
       <c r="JH7" s="7"/>
-      <c r="JR7" s="6" t="s">
+      <c r="JT7" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JU7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF7" s="6" t="s">
+      <c r="JW7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KJ7" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS7" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX7" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -12903,17 +13051,20 @@
       <c r="JF8" s="7"/>
       <c r="JG8" s="7"/>
       <c r="JH8" s="7"/>
-      <c r="JR8" s="6" t="s">
+      <c r="JT8" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM8" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS8" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KQ8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU8" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX8" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -13314,17 +13465,20 @@
       <c r="JF9" s="7"/>
       <c r="JG9" s="7"/>
       <c r="JH9" s="7"/>
-      <c r="JR9" s="6" t="s">
+      <c r="JT9" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM9" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS9" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU9" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX9" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
@@ -13725,20 +13879,23 @@
       <c r="JF10" s="7"/>
       <c r="JG10" s="7"/>
       <c r="JH10" s="7"/>
-      <c r="JR10" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV10" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM10" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS10" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU10" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX10" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>96</v>
       </c>
@@ -14127,23 +14284,26 @@
       <c r="JF11" s="7"/>
       <c r="JG11" s="7"/>
       <c r="JH11" s="7"/>
-      <c r="JR11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB11" s="6" t="s">
+      <c r="JT11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD11" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS11" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KQ11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU11" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX11" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -14526,17 +14686,23 @@
       <c r="JF12" s="7"/>
       <c r="JG12" s="7"/>
       <c r="JH12" s="7"/>
-      <c r="JR12" s="6" t="s">
+      <c r="JT12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM12" s="6" t="s">
+      <c r="KF12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS12" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KQ12" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX12" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>97</v>
       </c>
@@ -14933,23 +15099,26 @@
       <c r="JF13" s="7"/>
       <c r="JG13" s="7"/>
       <c r="JH13" s="7"/>
-      <c r="JR13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY13" s="6" t="s">
+      <c r="JT13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KF13" s="6" t="s">
+      <c r="KJ13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS13" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KQ13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX13" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -15346,23 +15515,26 @@
       <c r="JF14" s="7"/>
       <c r="JG14" s="7"/>
       <c r="JH14" s="7"/>
-      <c r="JR14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JW14" s="6" t="s">
+      <c r="JT14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY14" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM14" s="6" t="s">
+      <c r="JZ14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ14" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS14" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX14" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -15761,29 +15933,32 @@
       <c r="JF15" s="7"/>
       <c r="JG15" s="7"/>
       <c r="JH15" s="7"/>
-      <c r="JR15" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT15" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY15" s="6" t="s">
+      <c r="JV15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP15" s="6" t="s">
+      <c r="KQ15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS15" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KU15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX15" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -16166,26 +16341,29 @@
       <c r="JF16" s="7"/>
       <c r="JG16" s="7"/>
       <c r="JH16" s="7"/>
-      <c r="JR16" s="6" t="s">
+      <c r="JT16" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP16" s="6" t="s">
+      <c r="JZ16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT16" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS16" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KU16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX16" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -16582,26 +16760,29 @@
       <c r="JF17" s="7"/>
       <c r="JG17" s="7"/>
       <c r="JH17" s="7"/>
-      <c r="JR17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX17" s="6" t="s">
+      <c r="JT17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ17" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JY17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL17" s="6" t="s">
+      <c r="KA17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP17" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS17" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX17" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -16988,20 +17169,23 @@
       <c r="JF18" s="7"/>
       <c r="JG18" s="7"/>
       <c r="JH18" s="7"/>
-      <c r="JR18" s="6" t="s">
+      <c r="JT18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX18" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM18" s="6" t="s">
+      <c r="JZ18" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS18" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU18" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX18" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
@@ -17388,26 +17572,29 @@
       <c r="JF19" s="7"/>
       <c r="JG19" s="7"/>
       <c r="JH19" s="7"/>
-      <c r="JR19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB19" s="6" t="s">
+      <c r="JT19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KG19" s="6" t="s">
+      <c r="KK19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS19" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX19" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -17786,29 +17973,29 @@
       <c r="JF20" s="7"/>
       <c r="JG20" s="7"/>
       <c r="JH20" s="7"/>
-      <c r="KC20" s="6" t="s">
+      <c r="KE20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH20" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KL20" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN20" s="6" t="s">
+      <c r="KP20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR20" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV20" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -18197,29 +18384,32 @@
       <c r="JF21" s="7"/>
       <c r="JG21" s="7"/>
       <c r="JH21" s="7"/>
-      <c r="JR21" s="6" t="s">
+      <c r="JT21" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JU21" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JW21" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX21" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JY21" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM21" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS21" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU21" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX21" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -18616,23 +18806,29 @@
       <c r="JF22" s="7"/>
       <c r="JG22" s="7"/>
       <c r="JH22" s="7"/>
-      <c r="JR22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB22" s="6" t="s">
+      <c r="JT22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD22" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS22" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KO22" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KQ22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX22" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>100</v>
       </c>
@@ -19017,26 +19213,29 @@
       <c r="JF23" s="7"/>
       <c r="JG23" s="7"/>
       <c r="JH23" s="7"/>
-      <c r="JR23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JV23" s="6" t="s">
+      <c r="JT23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JX23" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS23" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="JZ23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU23" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX23" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -19435,23 +19634,26 @@
       <c r="JF24" s="7"/>
       <c r="JG24" s="7"/>
       <c r="JH24" s="7"/>
-      <c r="JR24" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JW24" s="6" t="s">
+      <c r="JT24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY24" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX24" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM24" s="6" t="s">
+      <c r="JZ24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ24" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS24" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KU24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX24" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -19846,29 +20048,32 @@
       <c r="JF25" s="7"/>
       <c r="JG25" s="7"/>
       <c r="JH25" s="7"/>
-      <c r="JR25" s="6" t="s">
+      <c r="JT25" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JU25" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JW25" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ25" s="6" t="s">
+      <c r="JY25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN25" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS25" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KQ25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX25" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>101</v>
       </c>
@@ -20259,23 +20464,29 @@
       <c r="JF26" s="7"/>
       <c r="JG26" s="7"/>
       <c r="JH26" s="7"/>
-      <c r="JR26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX26" s="6" t="s">
+      <c r="JT26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ26" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS26" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KI26" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KO26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX26" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -20660,26 +20871,29 @@
       <c r="JF27" s="7"/>
       <c r="JG27" s="7"/>
       <c r="JH27" s="7"/>
-      <c r="JR27" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG27" s="6" t="s">
+      <c r="JZ27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS27" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX27" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -21060,41 +21274,44 @@
       <c r="JF28" s="7"/>
       <c r="JG28" s="7"/>
       <c r="JH28" s="7"/>
-      <c r="JR28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU28" s="6" t="s">
+      <c r="JT28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW28" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI28" s="6" t="s">
+      <c r="JZ28" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KK28" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL28" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KM28" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KO28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS28" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS28" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KT28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX28" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -21477,32 +21694,35 @@
       <c r="JF29" s="7"/>
       <c r="JG29" s="7"/>
       <c r="JH29" s="7"/>
-      <c r="JR29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU29" s="6" t="s">
+      <c r="JT29" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JW29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY29" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS29" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP29" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KQ29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX29" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -21893,26 +22113,29 @@
       <c r="JF30" s="7"/>
       <c r="JG30" s="7"/>
       <c r="JH30" s="7"/>
-      <c r="JR30" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX30" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY30" s="6" t="s">
+      <c r="JT30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM30" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN30" s="6" t="s">
+      <c r="KQ30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS30" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX30" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -22291,23 +22514,26 @@
       <c r="JF31" s="7"/>
       <c r="JG31" s="7"/>
       <c r="JH31" s="7"/>
-      <c r="JR31" s="6" t="s">
+      <c r="JT31" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JV31" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JX31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM31" s="6" t="s">
+      <c r="JZ31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ31" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS31" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KU31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX31" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -22670,20 +22896,23 @@
       <c r="JF32" s="7"/>
       <c r="JG32" s="7"/>
       <c r="JH32" s="7"/>
-      <c r="JR32" s="6" t="s">
+      <c r="JT32" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX32" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM32" s="6" t="s">
+      <c r="JZ32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ32" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS32" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX32" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -23068,20 +23297,23 @@
       <c r="JF33" s="7"/>
       <c r="JG33" s="7"/>
       <c r="JH33" s="7"/>
-      <c r="JR33" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT33" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV33" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX33" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS33" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ33" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU33" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX33" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -23486,23 +23718,29 @@
       <c r="JF34" s="7"/>
       <c r="JG34" s="7"/>
       <c r="JH34" s="7"/>
-      <c r="JR34" s="6" t="s">
+      <c r="JT34" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JV34" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JX34" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM34" s="6" t="s">
+      <c r="JZ34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ34" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS34" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX34" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -23887,23 +24125,26 @@
       <c r="JF35" s="7"/>
       <c r="JG35" s="7"/>
       <c r="JH35" s="7"/>
-      <c r="JR35" s="6" t="s">
+      <c r="JT35" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI35" s="6" t="s">
+      <c r="JZ35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM35" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS35" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX35" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -24286,26 +24527,32 @@
       <c r="JF36" s="7"/>
       <c r="JG36" s="7"/>
       <c r="JH36" s="7"/>
-      <c r="JR36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU36" s="6" t="s">
+      <c r="JT36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN36" s="6" t="s">
+      <c r="JZ36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS36" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX36" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -24674,26 +24921,26 @@
       <c r="JF37" s="7"/>
       <c r="JG37" s="7"/>
       <c r="JH37" s="7"/>
-      <c r="JR37" s="6" t="s">
+      <c r="JT37" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JS37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD37" s="6" t="s">
+      <c r="JU37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU37" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KG37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS37" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KX37" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -25074,20 +25321,23 @@
       <c r="JF38" s="7"/>
       <c r="JG38" s="7"/>
       <c r="JH38" s="7"/>
-      <c r="JR38" s="6" t="s">
+      <c r="JT38" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF38" s="6" t="s">
+      <c r="JZ38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KJ38" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS38" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX38" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -25456,20 +25706,23 @@
       <c r="JF39" s="7"/>
       <c r="JG39" s="7"/>
       <c r="JH39" s="7"/>
-      <c r="JR39" s="6" t="s">
+      <c r="JT39" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX39" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP39" s="6" t="s">
+      <c r="JZ39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT39" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS39" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX39" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>103</v>
       </c>
@@ -25852,20 +26105,23 @@
       <c r="JF40" s="7"/>
       <c r="JG40" s="7"/>
       <c r="JH40" s="7"/>
-      <c r="JR40" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JW40" s="6" t="s">
+      <c r="JT40" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY40" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX40" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS40" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ40" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU40" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX40" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -26238,17 +26494,20 @@
       <c r="JF41" s="7"/>
       <c r="JG41" s="7"/>
       <c r="JH41" s="7"/>
-      <c r="JR41" s="6" t="s">
+      <c r="JT41" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX41" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS41" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ41" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU41" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX41" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -26643,23 +26902,26 @@
       <c r="JF42" s="7"/>
       <c r="JG42" s="7"/>
       <c r="JH42" s="7"/>
-      <c r="JR42" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU42" s="6" t="s">
+      <c r="JT42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW42" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX42" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM42" s="6" t="s">
+      <c r="JZ42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ42" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS42" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX42" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -27034,20 +27296,23 @@
       <c r="JF43" s="7"/>
       <c r="JG43" s="7"/>
       <c r="JH43" s="7"/>
-      <c r="JR43" s="6" t="s">
+      <c r="JT43" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX43" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG43" s="6" t="s">
+      <c r="JZ43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU43" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS43" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KX43" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -27418,23 +27683,26 @@
       <c r="JF44" s="7"/>
       <c r="JG44" s="7"/>
       <c r="JH44" s="7"/>
-      <c r="JR44" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV44" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO44" s="6" t="s">
+      <c r="JZ44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS44" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS44" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX44" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -27821,26 +28089,29 @@
       <c r="JF45" s="7"/>
       <c r="JG45" s="7"/>
       <c r="JH45" s="7"/>
-      <c r="JR45" s="6" t="s">
+      <c r="JT45" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL45" s="6" t="s">
+      <c r="JZ45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM45" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KP45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT45" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS45" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX45" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>105</v>
       </c>
@@ -28247,38 +28518,44 @@
       <c r="JF46" s="7"/>
       <c r="JG46" s="7"/>
       <c r="JH46" s="7"/>
-      <c r="JR46" s="6" t="s">
+      <c r="JT46" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ46" s="6" t="s">
+      <c r="JZ46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK46" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KL46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM46" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KN46" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="KP46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ46" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="KR46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS46" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU46" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KV46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX46" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
@@ -28667,29 +28944,29 @@
       <c r="JF47" s="7"/>
       <c r="JG47" s="7"/>
       <c r="JH47" s="7"/>
-      <c r="JR47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX47" s="6" t="s">
+      <c r="JT47" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KD47" s="6" t="s">
+      <c r="KH47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KF47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM47" s="6" t="s">
+      <c r="KJ47" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KQ47" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="48" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU47" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -29074,35 +29351,38 @@
       <c r="JF48" s="7"/>
       <c r="JG48" s="7"/>
       <c r="JH48" s="7"/>
-      <c r="JR48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU48" s="6" t="s">
+      <c r="JT48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW48" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG48" s="6" t="s">
+      <c r="JZ48" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KH48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL48" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS48" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KO48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX48" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -29513,26 +29793,29 @@
       <c r="JF49" s="7"/>
       <c r="JG49" s="7"/>
       <c r="JH49" s="7"/>
-      <c r="JR49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU49" s="6" t="s">
+      <c r="JT49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW49" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN49" s="6" t="s">
+      <c r="JZ49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR49" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS49" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX49" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>107</v>
       </c>
@@ -29899,26 +30182,29 @@
       <c r="JF50" s="7"/>
       <c r="JG50" s="7"/>
       <c r="JH50" s="7"/>
-      <c r="JR50" s="6" t="s">
+      <c r="JT50" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ50" s="6" t="s">
+      <c r="JZ50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN50" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS50" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX50" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
@@ -30301,20 +30587,29 @@
       <c r="JF51" s="7"/>
       <c r="JG51" s="7"/>
       <c r="JH51" s="7"/>
-      <c r="JR51" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV51" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX51" s="6" t="s">
+      <c r="JZ51" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KS51" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+      <c r="KT51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX51" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -30707,20 +31002,23 @@
       <c r="JF52" s="7"/>
       <c r="JG52" s="7"/>
       <c r="JH52" s="7"/>
-      <c r="JR52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS52" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JT52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL52" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX52" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -31065,17 +31363,20 @@
       <c r="JF53" s="7"/>
       <c r="JG53" s="7"/>
       <c r="JH53" s="7"/>
-      <c r="JR53" s="6" t="s">
+      <c r="JT53" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX53" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS53" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ53" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU53" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX53" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
@@ -31462,23 +31763,26 @@
       <c r="JF54" s="7"/>
       <c r="JG54" s="7"/>
       <c r="JH54" s="7"/>
-      <c r="JR54" s="6" t="s">
+      <c r="JT54" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JT54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS54" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JV54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU54" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX54" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -31851,23 +32155,29 @@
       <c r="JF55" s="7"/>
       <c r="JG55" s="7"/>
       <c r="JH55" s="7"/>
-      <c r="JR55" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS55" s="6" t="s">
+      <c r="JT55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU55" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JV55" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JX55" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS55" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU55" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX55" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -32246,20 +32556,23 @@
       <c r="JF56" s="7"/>
       <c r="JG56" s="7"/>
       <c r="JH56" s="7"/>
-      <c r="KC56" s="6" t="s">
+      <c r="KE56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH56" s="6" t="s">
+      <c r="KL56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KN56" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR56" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="57" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU56" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV56" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>111</v>
       </c>
@@ -32634,23 +32947,26 @@
       <c r="JF57" s="7"/>
       <c r="JG57" s="7"/>
       <c r="JH57" s="7"/>
-      <c r="JR57" s="6" t="s">
+      <c r="JT57" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX57" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY57" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH57" s="6" t="s">
+      <c r="JZ57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL57" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS57" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX57" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -33059,20 +33375,23 @@
       <c r="JF58" s="7"/>
       <c r="JG58" s="7"/>
       <c r="JH58" s="7"/>
-      <c r="JR58" s="6" t="s">
+      <c r="JT58" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX58" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH58" s="6" t="s">
+      <c r="JZ58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL58" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS58" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX58" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>112</v>
       </c>
@@ -33453,23 +33772,26 @@
       <c r="JF59" s="7"/>
       <c r="JG59" s="7"/>
       <c r="JH59" s="7"/>
-      <c r="JR59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS59" s="6" t="s">
+      <c r="JT59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU59" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL59" s="6" t="s">
+      <c r="JZ59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP59" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS59" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KU59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX59" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>113</v>
       </c>
@@ -33892,32 +34214,35 @@
       <c r="JF60" s="7"/>
       <c r="JG60" s="7"/>
       <c r="JH60" s="7"/>
-      <c r="JR60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY60" s="6" t="s">
+      <c r="JT60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KG60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH60" s="6" t="s">
+      <c r="KK60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL60" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KP60" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS60" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KT60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX60" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>114</v>
       </c>
@@ -34290,32 +34615,35 @@
       <c r="JF61" s="7"/>
       <c r="JG61" s="7"/>
       <c r="JH61" s="7"/>
-      <c r="JR61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JW61" s="6" t="s">
+      <c r="JT61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY61" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ61" s="6" t="s">
+      <c r="JZ61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN61" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS61" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX61" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -34686,23 +35014,26 @@
       <c r="JF62" s="7"/>
       <c r="JG62" s="7"/>
       <c r="JH62" s="7"/>
-      <c r="JR62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU62" s="6" t="s">
+      <c r="JT62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW62" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS62" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="JZ62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU62" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX62" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
@@ -35083,17 +35414,26 @@
       <c r="JF63" s="7"/>
       <c r="JG63" s="7"/>
       <c r="JH63" s="7"/>
-      <c r="JR63" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX63" s="6" t="s">
+      <c r="JT63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ63" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS63" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KN63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU63" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX63" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
@@ -35464,17 +35804,20 @@
       <c r="JF64" s="7"/>
       <c r="JG64" s="7"/>
       <c r="JH64" s="7"/>
-      <c r="JR64" s="6" t="s">
+      <c r="JT64" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX64" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS64" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ64" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU64" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX64" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
@@ -35851,20 +36194,26 @@
       <c r="JF65" s="7"/>
       <c r="JG65" s="7"/>
       <c r="JH65" s="7"/>
-      <c r="JR65" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU65" s="6" t="s">
+      <c r="JT65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW65" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX65" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS65" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ65" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX65" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
@@ -36241,20 +36590,23 @@
       <c r="JF66" s="7"/>
       <c r="JG66" s="7"/>
       <c r="JH66" s="7"/>
-      <c r="JR66" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX66" s="6" t="s">
+      <c r="JT66" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP66" s="6" t="s">
+      <c r="KT66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS66" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU66" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX66" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -36637,23 +36989,26 @@
       <c r="JF67" s="7"/>
       <c r="JG67" s="7"/>
       <c r="JH67" s="7"/>
-      <c r="JR67" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX67" s="6" t="s">
+      <c r="JT67" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KD67" s="6" t="s">
+      <c r="KH67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS67" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX67" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
@@ -37016,20 +37371,23 @@
       <c r="JF68" s="7"/>
       <c r="JG68" s="7"/>
       <c r="JH68" s="7"/>
-      <c r="JR68" s="6" t="s">
+      <c r="JT68" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX68" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN68" s="6" t="s">
+      <c r="JZ68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR68" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS68" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX68" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -37414,20 +37772,23 @@
       <c r="JF69" s="7"/>
       <c r="JG69" s="7"/>
       <c r="JH69" s="7"/>
-      <c r="JR69" s="6" t="s">
+      <c r="JT69" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX69" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM69" s="6" t="s">
+      <c r="JZ69" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ69" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS69" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:305" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KU69" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX69" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>116</v>
       </c>
@@ -37804,23 +38165,26 @@
         <v>384</v>
       </c>
       <c r="JH70" s="7"/>
-      <c r="JR70" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX70" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY70" s="6" t="s">
+      <c r="JT70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KN70" s="6" t="s">
+      <c r="KR70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS70" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX70" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>117</v>
       </c>
@@ -38205,23 +38569,26 @@
       <c r="JF71" s="7"/>
       <c r="JG71" s="7"/>
       <c r="JH71" s="7"/>
-      <c r="JR71" s="6" t="s">
+      <c r="JT71" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JW71" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX71" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL71" s="6" t="s">
+      <c r="JY71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP71" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS71" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX71" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
@@ -38596,20 +38963,26 @@
       <c r="JF72" s="7"/>
       <c r="JG72" s="7"/>
       <c r="JH72" s="7"/>
-      <c r="JR72" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT72" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX72" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS72" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JV72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN72" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX72" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
@@ -38986,17 +39359,23 @@
       <c r="JF73" s="7"/>
       <c r="JG73" s="7"/>
       <c r="JH73" s="7"/>
-      <c r="JR73" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX73" s="6" t="s">
+      <c r="JT73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ73" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KS73" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+      <c r="KU73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX73" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
@@ -39351,20 +39730,29 @@
       <c r="JF74" s="7"/>
       <c r="JG74" s="7"/>
       <c r="JH74" s="7"/>
-      <c r="JR74" s="6" t="s">
+      <c r="JT74" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JW74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS74" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JY74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU74" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX74" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
@@ -39725,20 +40113,26 @@
       <c r="JF75" s="7"/>
       <c r="JG75" s="7"/>
       <c r="JH75" s="7"/>
-      <c r="JR75" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX75" s="6" t="s">
+      <c r="JT75" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB75" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS75" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KH75" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX75" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
@@ -40107,17 +40501,20 @@
       <c r="JF76" s="7"/>
       <c r="JG76" s="7"/>
       <c r="JH76" s="7"/>
-      <c r="JR76" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX76" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS76" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JT76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU76" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX76" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
@@ -40500,20 +40897,23 @@
       <c r="JF77" s="7"/>
       <c r="JG77" s="7"/>
       <c r="JH77" s="7"/>
-      <c r="JR77" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX77" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY77" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS77" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JT77" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ77" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA77" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU77" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX77" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
@@ -40888,23 +41288,26 @@
       <c r="JF78" s="7"/>
       <c r="JG78" s="7"/>
       <c r="JH78" s="7"/>
-      <c r="JR78" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX78" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB78" s="6" t="s">
+      <c r="JT78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KF78" s="6" t="s">
+      <c r="KJ78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS78" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX78" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>119</v>
       </c>
@@ -41263,17 +41666,20 @@
       <c r="JF79" s="7"/>
       <c r="JG79" s="7"/>
       <c r="JH79" s="7"/>
-      <c r="JR79" s="6" t="s">
+      <c r="JT79" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX79" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS79" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ79" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU79" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX79" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -41644,20 +42050,23 @@
       <c r="JF80" s="7"/>
       <c r="JG80" s="7"/>
       <c r="JH80" s="7"/>
-      <c r="JR80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ80" s="6" t="s">
+      <c r="JT80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN80" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS80" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KU80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX80" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -42032,20 +42441,23 @@
       <c r="JF81" s="7"/>
       <c r="JG81" s="7"/>
       <c r="JH81" s="7"/>
-      <c r="JR81" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU81" s="6" t="s">
+      <c r="JT81" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW81" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX81" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS81" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ81" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU81" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX81" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -42408,20 +42820,23 @@
       <c r="JF82" s="7"/>
       <c r="JG82" s="7"/>
       <c r="JH82" s="7"/>
-      <c r="JR82" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT82" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV82" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX82" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS82" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JZ82" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU82" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX82" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -42786,32 +43201,35 @@
       <c r="JF83" s="7"/>
       <c r="JG83" s="7"/>
       <c r="JH83" s="7"/>
-      <c r="JR83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JU83" s="6" t="s">
+      <c r="JT83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW83" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ83" s="6" t="s">
+      <c r="JZ83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN83" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS83" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KO83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX83" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -43184,20 +43602,23 @@
       <c r="JF84" s="7"/>
       <c r="JG84" s="7"/>
       <c r="JH84" s="7"/>
-      <c r="JR84" s="6" t="s">
+      <c r="JT84" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JW84" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX84" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS84" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JY84" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ84" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU84" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX84" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -43558,17 +43979,20 @@
       <c r="JF85" s="7"/>
       <c r="JG85" s="7"/>
       <c r="JH85" s="7"/>
-      <c r="JR85" s="6" t="s">
+      <c r="JT85" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX85" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS85" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:305" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="JZ85" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU85" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX85" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -43957,20 +44381,23 @@
       <c r="JF86" s="7"/>
       <c r="JG86" s="7"/>
       <c r="JH86" s="7"/>
-      <c r="JR86" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT86" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV86" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX86" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS86" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ86" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU86" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX86" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -44331,20 +44758,23 @@
       <c r="JF87" s="7"/>
       <c r="JG87" s="7"/>
       <c r="JH87" s="7"/>
-      <c r="JR87" s="6" t="s">
+      <c r="JT87" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JW87" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX87" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS87" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JY87" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ87" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU87" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX87" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>2985</v>
       </c>
@@ -44372,17 +44802,20 @@
       <c r="Z88" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR88" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX88" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS88" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT88" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ88" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU88" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX88" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>1632</v>
       </c>
@@ -44405,17 +44838,23 @@
       <c r="Z89" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR89" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX89" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS89" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ89" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX89" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1633</v>
       </c>
@@ -44438,17 +44877,20 @@
       <c r="Z90" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR90" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX90" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS90" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU90" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX90" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>1634</v>
       </c>
@@ -44476,20 +44918,26 @@
       <c r="Z91" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="JR91" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT91" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX91" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS91" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JV91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT91" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KU91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX91" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>1641</v>
       </c>
@@ -44526,17 +44974,17 @@
       <c r="AB92" s="11" t="s">
         <v>2573</v>
       </c>
-      <c r="JR92" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX92" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS92" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT92" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ92" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX92" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>1635</v>
       </c>
@@ -44568,17 +45016,17 @@
       <c r="AB93" s="11" t="s">
         <v>2574</v>
       </c>
-      <c r="JR93" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX93" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS93" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT93" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ93" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX93" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>1636</v>
       </c>
@@ -44612,17 +45060,17 @@
       <c r="AB94" s="6" t="s">
         <v>2575</v>
       </c>
-      <c r="JR94" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX94" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS94" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT94" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ94" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX94" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1638</v>
       </c>
@@ -44656,17 +45104,17 @@
       <c r="AB95" s="11" t="s">
         <v>2576</v>
       </c>
-      <c r="JR95" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX95" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS95" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT95" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ95" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX95" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>1639</v>
       </c>
@@ -44703,17 +45151,17 @@
       <c r="Z96" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="JR96" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX96" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS96" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT96" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ96" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX96" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>1637</v>
       </c>
@@ -44742,17 +45190,17 @@
       <c r="Z97" s="7" t="s">
         <v>2488</v>
       </c>
-      <c r="JR97" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX97" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS97" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT97" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ97" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX97" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>1640</v>
       </c>
@@ -44784,17 +45232,20 @@
       <c r="Z98" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="JR98" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX98" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS98" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT98" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ98" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL98" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KX98" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>1965</v>
       </c>
@@ -44825,11 +45276,11 @@
       <c r="Z99" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="KS99" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX99" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1684</v>
       </c>
@@ -44869,11 +45320,11 @@
       <c r="Z100" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="KS100" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX100" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1661</v>
       </c>
@@ -44908,17 +45359,17 @@
       <c r="Z101" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="JR101" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX101" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS101" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT101" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ101" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX101" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1727</v>
       </c>
@@ -44945,11 +45396,11 @@
       <c r="Z102" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KS102" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX102" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1729</v>
       </c>
@@ -44978,11 +45429,11 @@
       <c r="Z103" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KS103" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX103" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1664</v>
       </c>
@@ -45019,17 +45470,17 @@
       <c r="Z104" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="JR104" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX104" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS104" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT104" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ104" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX104" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>1666</v>
       </c>
@@ -45056,17 +45507,17 @@
       <c r="Z105" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="JR105" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX105" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS105" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:305" ht="30" x14ac:dyDescent="0.25">
+      <c r="JT105" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ105" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX105" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:310" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>1680</v>
       </c>
@@ -45103,17 +45554,17 @@
       <c r="Z106" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="JR106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS106" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JT106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX106" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1536</v>
       </c>
@@ -45408,23 +45859,23 @@
       <c r="JF107" s="7"/>
       <c r="JG107" s="7"/>
       <c r="JH107" s="7"/>
-      <c r="JR107" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX107" s="6" t="s">
+      <c r="JT107" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ107" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KF107" s="6" t="s">
+      <c r="KJ107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM107" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KQ107" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>1662</v>
       </c>
@@ -45461,20 +45912,20 @@
       <c r="Z108" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="JR108" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX108" s="6" t="s">
+      <c r="JT108" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ108" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS108" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KB108" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX108" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>1723</v>
       </c>
@@ -45510,7 +45961,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="110" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>1663</v>
       </c>
@@ -45544,17 +45995,17 @@
       <c r="Z110" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="JR110" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX110" s="6" t="s">
+      <c r="JT110" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ110" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="111" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KB110" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>1945</v>
       </c>
@@ -45593,7 +46044,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="112" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>2886</v>
       </c>
@@ -45621,7 +46072,7 @@
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
     </row>
-    <row r="113" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>2887</v>
       </c>
@@ -45649,7 +46100,7 @@
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
     </row>
-    <row r="114" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>1682</v>
       </c>
@@ -45683,17 +46134,17 @@
       <c r="Z114" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="JR114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS114" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT114" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ114" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX114" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>2894</v>
       </c>
@@ -45718,7 +46169,7 @@
       <c r="R115" s="45"/>
       <c r="S115" s="45"/>
     </row>
-    <row r="116" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>2895</v>
       </c>
@@ -45743,7 +46194,7 @@
       <c r="R116" s="45"/>
       <c r="S116" s="45"/>
     </row>
-    <row r="117" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>2896</v>
       </c>
@@ -45768,7 +46219,7 @@
       <c r="R117" s="45"/>
       <c r="S117" s="45"/>
     </row>
-    <row r="118" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>2897</v>
       </c>
@@ -45793,7 +46244,7 @@
       <c r="R118" s="45"/>
       <c r="S118" s="45"/>
     </row>
-    <row r="119" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>2898</v>
       </c>
@@ -45818,7 +46269,7 @@
       <c r="R119" s="45"/>
       <c r="S119" s="45"/>
     </row>
-    <row r="120" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>2899</v>
       </c>
@@ -45843,7 +46294,7 @@
       <c r="R120" s="45"/>
       <c r="S120" s="45"/>
     </row>
-    <row r="121" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>2900</v>
       </c>
@@ -45868,7 +46319,7 @@
       <c r="R121" s="45"/>
       <c r="S121" s="45"/>
     </row>
-    <row r="122" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>1668</v>
       </c>
@@ -45895,17 +46346,17 @@
       <c r="Z122" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="JR122" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX122" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS122" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT122" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ122" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>1944</v>
       </c>
@@ -45932,11 +46383,11 @@
       <c r="Z123" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KS123" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX123" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>1669</v>
       </c>
@@ -45968,17 +46419,17 @@
       <c r="Z124" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="JR124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS124" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="125" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT124" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ124" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX124" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>1672</v>
       </c>
@@ -46010,23 +46461,23 @@
       <c r="Z125" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="JR125" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS125" s="6" t="s">
+      <c r="JT125" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU125" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JV125" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JX125" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS125" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="126" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ125" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX125" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>1670</v>
       </c>
@@ -46063,20 +46514,20 @@
       <c r="Z126" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="JR126" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT126" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV126" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX126" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS126" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ126" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX126" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>1628</v>
       </c>
@@ -46110,17 +46561,17 @@
       <c r="Z127" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="JR127" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX127" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS127" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT127" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ127" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX127" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>1627</v>
       </c>
@@ -46152,17 +46603,17 @@
       <c r="Z128" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="JR128" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX128" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS128" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT128" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ128" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX128" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>1631</v>
       </c>
@@ -46199,17 +46650,17 @@
       <c r="Z129" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="JR129" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX129" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS129" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT129" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ129" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX129" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>1667</v>
       </c>
@@ -46240,17 +46691,17 @@
       <c r="Z130" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="JR130" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX130" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS130" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="131" spans="1:305" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="JT130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX130" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>1537</v>
       </c>
@@ -46282,17 +46733,17 @@
       <c r="Z131" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR131" s="6" t="s">
+      <c r="JT131" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX131" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS131" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ131" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX131" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>1468</v>
       </c>
@@ -46324,23 +46775,23 @@
       <c r="Z132" s="7" t="s">
         <v>1855</v>
       </c>
-      <c r="JR132" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS132" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JV132" s="6" t="s">
+      <c r="JT132" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU132" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JX132" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX132" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS132" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="133" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ132" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX132" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>1538</v>
       </c>
@@ -46364,23 +46815,23 @@
       <c r="Z133" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="JR133" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX133" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KC133" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR133" s="6" t="s">
+      <c r="JT133" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ133" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE133" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV133" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS133" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX133" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>1469</v>
       </c>
@@ -46406,17 +46857,17 @@
       <c r="Z134" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR134" s="6" t="s">
+      <c r="JT134" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX134" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS134" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="135" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JZ134" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX134" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>1471</v>
       </c>
@@ -46445,17 +46896,17 @@
       <c r="Z135" s="7" t="s">
         <v>2488</v>
       </c>
-      <c r="JR135" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX135" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS135" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT135" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ135" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX135" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>1539</v>
       </c>
@@ -46480,15 +46931,9 @@
       <c r="Z136" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR136" s="6" t="s">
+      <c r="JT136" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JS136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JT136" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JU136" s="6" t="s">
         <v>384</v>
       </c>
@@ -46504,41 +46949,47 @@
       <c r="JY136" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="JZ136" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="KA136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KB136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI136" s="6" t="s">
+      <c r="KC136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KJ136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KK136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO136" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS136" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:305" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KP136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX136" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1473</v>
       </c>
@@ -46569,12 +47020,6 @@
       <c r="Z137" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="JR137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS137" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JT137" s="6" t="s">
         <v>384</v>
       </c>
@@ -46585,43 +47030,49 @@
         <v>384</v>
       </c>
       <c r="JW137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JX137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY137" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JX137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JY137" s="6" t="s">
+      <c r="JZ137" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KA137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KB137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KH137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KJ137" s="6" t="s">
+      <c r="KC137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN137" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM137" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS137" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="138" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KP137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX137" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>1540</v>
       </c>
@@ -46652,17 +47103,17 @@
       <c r="Z138" s="7" t="s">
         <v>2488</v>
       </c>
-      <c r="JR138" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX138" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS138" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="139" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT138" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ138" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX138" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>1475</v>
       </c>
@@ -46691,17 +47142,17 @@
       <c r="Z139" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR139" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX139" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS139" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="140" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT139" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ139" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX139" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>1541</v>
       </c>
@@ -46724,17 +47175,17 @@
       <c r="Z140" s="7" t="s">
         <v>2488</v>
       </c>
-      <c r="JR140" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX140" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS140" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="141" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT140" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ140" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX140" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>1477</v>
       </c>
@@ -46761,17 +47212,17 @@
       <c r="Z141" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR141" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX141" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS141" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT141" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ141" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX141" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>1478</v>
       </c>
@@ -46798,17 +47249,17 @@
       <c r="Z142" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR142" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX142" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS142" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT142" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ142" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX142" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>1542</v>
       </c>
@@ -46832,17 +47283,17 @@
       <c r="Z143" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="JR143" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX143" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS143" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT143" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ143" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX143" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>1480</v>
       </c>
@@ -46870,13 +47321,10 @@
       <c r="Z144" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR144" s="6" t="s">
+      <c r="JT144" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JU144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JV144" s="6" t="s">
+      <c r="JW144" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JX144" s="6" t="s">
@@ -46885,20 +47333,23 @@
       <c r="JZ144" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KF144" s="6" t="s">
+      <c r="KB144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KJ144" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KG144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS144" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="145" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KK144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX144" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>1543</v>
       </c>
@@ -46924,17 +47375,17 @@
       <c r="Z145" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="JR145" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX145" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS145" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT145" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ145" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX145" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>1481</v>
       </c>
@@ -46963,17 +47414,17 @@
       <c r="Z146" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="JR146" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX146" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS146" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="147" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT146" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ146" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX146" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>1545</v>
       </c>
@@ -47001,17 +47452,17 @@
       <c r="Z147" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR147" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX147" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS147" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT147" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ147" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX147" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>1726</v>
       </c>
@@ -47032,11 +47483,11 @@
       <c r="Z148" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="KS148" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX148" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>1544</v>
       </c>
@@ -47066,17 +47517,17 @@
         <v>535</v>
       </c>
       <c r="AB149" s="11"/>
-      <c r="JR149" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX149" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS149" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT149" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ149" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX149" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>1485</v>
       </c>
@@ -47099,17 +47550,17 @@
       <c r="Z150" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR150" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX150" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS150" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT150" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ150" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX150" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>1685</v>
       </c>
@@ -47141,11 +47592,11 @@
       <c r="Z151" s="6" t="s">
         <v>2488</v>
       </c>
-      <c r="KS151" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="152" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX151" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1546</v>
       </c>
@@ -47174,17 +47625,17 @@
       <c r="Z152" s="7" t="s">
         <v>2488</v>
       </c>
-      <c r="JR152" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX152" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS152" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT152" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ152" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX152" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>1487</v>
       </c>
@@ -47207,17 +47658,17 @@
       <c r="Z153" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR153" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX153" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS153" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="154" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT153" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ153" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX153" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>1489</v>
       </c>
@@ -47249,17 +47700,17 @@
       <c r="Z154" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR154" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX154" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS154" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT154" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ154" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX154" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>1488</v>
       </c>
@@ -47293,17 +47744,17 @@
       <c r="Z155" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR155" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX155" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS155" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT155" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ155" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX155" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>1490</v>
       </c>
@@ -47340,20 +47791,20 @@
       <c r="Z156" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR156" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX156" s="6" t="s">
+      <c r="JT156" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JZ156" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS156" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KB156" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX156" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>1491</v>
       </c>
@@ -47385,17 +47836,17 @@
       <c r="Z157" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="JR157" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX157" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS157" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT157" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ157" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX157" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>1731</v>
       </c>
@@ -47429,11 +47880,11 @@
       <c r="Z158" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="KS158" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="159" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX158" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>1492</v>
       </c>
@@ -47456,17 +47907,17 @@
       <c r="Z159" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="JR159" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX159" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS159" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT159" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ159" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX159" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>1493</v>
       </c>
@@ -47492,17 +47943,17 @@
       <c r="Z160" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="JR160" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX160" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS160" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT160" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ160" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX160" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1734</v>
       </c>
@@ -47536,11 +47987,11 @@
       <c r="Z161" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="KS161" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="162" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX161" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>1494</v>
       </c>
@@ -47571,17 +48022,17 @@
       <c r="Z162" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="JR162" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JX162" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS162" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="163" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JT162" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ162" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX162" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>1495</v>
       </c>
@@ -47615,23 +48066,23 @@
       <c r="Z163" s="7" t="s">
         <v>1855</v>
       </c>
-      <c r="JR163" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JS163" s="6" t="s">
+      <c r="JT163" s="6" t="s">
         <v>384</v>
       </c>
       <c r="JU163" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JX163" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS163" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="JW163" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ163" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX163" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>1738</v>
       </c>
@@ -47665,11 +48116,11 @@
       <c r="Z164" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KS164" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:305" x14ac:dyDescent="0.25">
+      <c r="KX164" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>2935</v>
       </c>
@@ -47692,7 +48143,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="166" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>2943</v>
       </c>
@@ -47715,7 +48166,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="167" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>2945</v>
       </c>
@@ -47738,7 +48189,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="168" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2952</v>
       </c>
@@ -47761,7 +48212,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="169" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>2930</v>
       </c>
@@ -47784,7 +48235,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="170" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>2931</v>
       </c>
@@ -47807,7 +48258,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="171" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>2933</v>
       </c>
@@ -47830,7 +48281,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="172" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>2934</v>
       </c>
@@ -47853,7 +48304,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="173" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>2932</v>
       </c>
@@ -47876,7 +48327,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="174" spans="1:305" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>2936</v>
       </c>
@@ -47900,29 +48351,80 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KS155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KS155">
+  <autoFilter ref="A3:KX155" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KX155">
       <sortCondition ref="I101:I155"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KS174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KX174">
     <sortCondition ref="I171:I174"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="RELATIONSHIP:">
+  <conditionalFormatting sqref="A1:JH1 KX1:XFD1 JT1:KV1 JJ1:JR1">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="RELATIONSHIP:">
       <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",A1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="TRAIT:">
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"ignore"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="STATIC:">
+      <formula>NOT(ISERROR(SEARCH("STATIC:",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="NODE:">
+      <formula>NOT(ISERROR(SEARCH("NODE:",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="KW1">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="RELATIONSHIP:">
+      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",KW1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="TRAIT:">
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",KW1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"ignore"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="STATIC:">
+      <formula>NOT(ISERROR(SEARCH("STATIC:",KW1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="NODE:">
+      <formula>NOT(ISERROR(SEARCH("NODE:",KW1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JS1">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="RELATIONSHIP:">
+      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",JS1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="TRAIT:">
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",JS1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"ignore"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="STATIC:">
+      <formula>NOT(ISERROR(SEARCH("STATIC:",JS1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="NODE:">
+      <formula>NOT(ISERROR(SEARCH("NODE:",JS1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JI1">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="RELATIONSHIP:">
+      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",JI1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRAIT:">
-      <formula>NOT(ISERROR(SEARCH("TRAIT:",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",JI1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"ignore"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="STATIC:">
-      <formula>NOT(ISERROR(SEARCH("STATIC:",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("STATIC:",JI1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="NODE:">
-      <formula>NOT(ISERROR(SEARCH("NODE:",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NODE:",JI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48016,653 +48518,653 @@
         <v>2501</v>
       </c>
       <c r="R2" s="3">
-        <f>COUNT(R11:R1048576)</f>
+        <f t="shared" ref="R2:AW2" si="0">COUNT(R11:R1048576)</f>
         <v>16</v>
       </c>
       <c r="S2" s="3">
-        <f>COUNT(S11:S1048576)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="T2" s="3">
-        <f>COUNT(T11:T1048576)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U2" s="3">
-        <f>COUNT(U11:U1048576)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="V2" s="3">
-        <f>COUNT(V11:V1048576)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="W2" s="3">
-        <f>COUNT(W11:W1048576)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="X2" s="3">
-        <f>COUNT(X11:X1048576)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y2" s="3">
-        <f>COUNT(Y11:Y1048576)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Z2" s="3">
-        <f>COUNT(Z11:Z1048576)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AA2" s="3">
-        <f>COUNT(AA11:AA1048576)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB2" s="3">
-        <f>COUNT(AB11:AB1048576)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AC2" s="3">
-        <f>COUNT(AC11:AC1048576)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AD2" s="3">
-        <f>COUNT(AD11:AD1048576)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AE2" s="3">
-        <f>COUNT(AE11:AE1048576)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AF2" s="3">
-        <f>COUNT(AF11:AF1048576)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AG2" s="3">
-        <f>COUNT(AG11:AG1048576)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AH2" s="3">
-        <f>COUNT(AH11:AH1048576)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AI2" s="3">
-        <f>COUNT(AI11:AI1048576)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AJ2" s="3">
-        <f>COUNT(AJ11:AJ1048576)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AK2" s="3">
-        <f>COUNT(AK11:AK1048576)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AL2" s="3">
-        <f>COUNT(AL11:AL1048576)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AM2" s="3">
-        <f>COUNT(AM11:AM1048576)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AN2" s="3">
-        <f>COUNT(AN11:AN1048576)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AO2" s="3">
-        <f>COUNT(AO11:AO1048576)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AP2" s="3">
-        <f>COUNT(AP11:AP1048576)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AQ2" s="3">
-        <f>COUNT(AQ11:AQ1048576)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AR2" s="3">
-        <f>COUNT(AR11:AR1048576)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AS2" s="3">
-        <f>COUNT(AS11:AS1048576)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AT2" s="3">
-        <f>COUNT(AT11:AT1048576)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AU2" s="3">
-        <f>COUNT(AU11:AU1048576)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AV2" s="3">
-        <f>COUNT(AV11:AV1048576)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AW2" s="3">
-        <f>COUNT(AW11:AW1048576)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AX2" s="3">
-        <f>COUNT(AX11:AX1048576)</f>
+        <f t="shared" ref="AX2:CC2" si="1">COUNT(AX11:AX1048576)</f>
         <v>9</v>
       </c>
       <c r="AY2" s="3">
-        <f>COUNT(AY11:AY1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AZ2" s="3">
-        <f>COUNT(AZ11:AZ1048576)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BA2" s="3">
-        <f>COUNT(BA11:BA1048576)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BB2" s="3">
-        <f>COUNT(BB11:BB1048576)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BC2" s="3">
-        <f>COUNT(BC11:BC1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BD2" s="3">
-        <f>COUNT(BD11:BD1048576)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="BE2" s="3">
-        <f>COUNT(BE11:BE1048576)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BF2" s="3">
-        <f>COUNT(BF11:BF1048576)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BG2" s="3">
-        <f>COUNT(BG11:BG1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BH2" s="3">
-        <f>COUNT(BH11:BH1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BI2" s="3">
-        <f>COUNT(BI11:BI1048576)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="BJ2" s="3">
-        <f>COUNT(BJ11:BJ1048576)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="BK2" s="3">
-        <f>COUNT(BK11:BK1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BL2" s="3">
-        <f>COUNT(BL11:BL1048576)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BM2" s="3">
-        <f>COUNT(BM11:BM1048576)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BN2" s="3">
-        <f>COUNT(BN11:BN1048576)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BO2" s="3">
-        <f>COUNT(BO11:BO1048576)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BP2" s="3">
-        <f>COUNT(BP11:BP1048576)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="BQ2" s="3">
-        <f>COUNT(BQ11:BQ1048576)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BR2" s="3">
-        <f>COUNT(BR11:BR1048576)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="BS2" s="3">
-        <f>COUNT(BS11:BS1048576)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="BT2" s="3">
-        <f>COUNT(BT11:BT1048576)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="BU2" s="3">
-        <f>COUNT(BU11:BU1048576)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BV2" s="3">
-        <f>COUNT(BV11:BV1048576)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="BW2" s="3">
-        <f>COUNT(BW11:BW1048576)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="BX2" s="3">
-        <f>COUNT(BX11:BX1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BY2" s="3">
-        <f>COUNT(BY11:BY1048576)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BZ2" s="3">
-        <f>COUNT(BZ11:BZ1048576)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CA2" s="3">
-        <f>COUNT(CA11:CA1048576)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="CB2" s="3">
-        <f>COUNT(CB11:CB1048576)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="CC2" s="3">
-        <f>COUNT(CC11:CC1048576)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="CD2" s="3">
-        <f>COUNT(CD11:CD1048576)</f>
+        <f t="shared" ref="CD2:DK2" si="2">COUNT(CD11:CD1048576)</f>
         <v>15</v>
       </c>
       <c r="CE2" s="3">
-        <f>COUNT(CE11:CE1048576)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="CF2" s="3">
-        <f>COUNT(CF11:CF1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="CG2" s="3">
-        <f>COUNT(CG11:CG1048576)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="CH2" s="3">
-        <f>COUNT(CH11:CH1048576)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="CI2" s="3">
-        <f>COUNT(CI11:CI1048576)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="CJ2" s="3">
-        <f>COUNT(CJ11:CJ1048576)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="CK2" s="3">
-        <f>COUNT(CK11:CK1048576)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="CL2" s="3">
-        <f>COUNT(CL11:CL1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="CM2" s="3">
-        <f>COUNT(CM11:CM1048576)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="CN2" s="3">
-        <f>COUNT(CN11:CN1048576)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="CO2" s="3">
-        <f>COUNT(CO11:CO1048576)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="CP2" s="3">
-        <f>COUNT(CP11:CP1048576)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="CQ2" s="3">
-        <f>COUNT(CQ11:CQ1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="CR2" s="3">
-        <f>COUNT(CR11:CR1048576)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CS2" s="3">
-        <f>COUNT(CS11:CS1048576)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="CT2" s="3">
-        <f>COUNT(CT11:CT1048576)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="CU2" s="3">
-        <f>COUNT(CU11:CU1048576)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="CV2" s="3">
-        <f>COUNT(CV11:CV1048576)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CW2" s="3">
-        <f>COUNT(CW11:CW1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="CX2" s="3">
-        <f>COUNT(CX11:CX1048576)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="CY2" s="3">
-        <f>COUNT(CY11:CY1048576)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="CZ2" s="3">
-        <f>COUNT(CZ11:CZ1048576)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="DA2" s="3">
-        <f>COUNT(DA11:DA1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="DB2" s="3">
-        <f>COUNT(DB11:DB1048576)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="DC2" s="3">
-        <f>COUNT(DC11:DC1048576)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="DD2" s="3">
-        <f>COUNT(DD11:DD1048576)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="DE2" s="3">
-        <f>COUNT(DE11:DE1048576)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="DF2" s="3">
-        <f>COUNT(DF11:DF1048576)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="DG2" s="3">
-        <f>COUNT(DG11:DG1048576)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="DH2" s="3">
-        <f>COUNT(DH11:DH1048576)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="DI2" s="3">
-        <f>COUNT(DI11:DI1048576)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="DJ2" s="3">
-        <f>COUNT(DJ11:DJ1048576)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="DK2" s="3">
-        <f>COUNT(DK11:DK1048576)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="DL2" s="50"/>
       <c r="DM2" s="3">
-        <f>COUNT(DM11:DM1048576)</f>
+        <f t="shared" ref="DM2:EH2" si="3">COUNT(DM11:DM1048576)</f>
         <v>4</v>
       </c>
       <c r="DN2" s="3">
-        <f>COUNT(DN11:DN1048576)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="DO2" s="3">
-        <f>COUNT(DO11:DO1048576)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="DP2" s="3">
-        <f>COUNT(DP11:DP1048576)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="DQ2" s="3">
-        <f>COUNT(DQ11:DQ1048576)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="DR2" s="3">
-        <f>COUNT(DR11:DR1048576)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="DS2" s="3">
-        <f>COUNT(DS11:DS1048576)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="DT2" s="3">
-        <f>COUNT(DT11:DT1048576)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DU2" s="3">
-        <f>COUNT(DU11:DU1048576)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="DV2" s="3">
-        <f>COUNT(DV11:DV1048576)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="DW2" s="3">
-        <f>COUNT(DW11:DW1048576)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="DX2" s="3">
-        <f>COUNT(DX11:DX1048576)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="DY2" s="3">
-        <f>COUNT(DY11:DY1048576)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="DZ2" s="3">
-        <f>COUNT(DZ11:DZ1048576)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="EA2" s="3">
-        <f>COUNT(EA11:EA1048576)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="EB2" s="3">
-        <f>COUNT(EB11:EB1048576)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="EC2" s="3">
-        <f>COUNT(EC11:EC1048576)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="ED2" s="3">
-        <f>COUNT(ED11:ED1048576)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="EE2" s="3">
-        <f>COUNT(EE11:EE1048576)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="EF2" s="3">
-        <f>COUNT(EF11:EF1048576)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="EG2" s="3">
-        <f>COUNT(EG11:EG1048576)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="EH2" s="3">
-        <f>COUNT(EH11:EH1048576)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="EI2" s="50"/>
       <c r="EJ2" s="3">
-        <f>COUNT(EJ11:EJ1048576)</f>
+        <f t="shared" ref="EJ2:ET2" si="4">COUNT(EJ11:EJ1048576)</f>
         <v>10</v>
       </c>
       <c r="EK2" s="3">
-        <f>COUNT(EK11:EK1048576)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="EL2" s="3">
-        <f>COUNT(EL11:EL1048576)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="EM2" s="3">
-        <f>COUNT(EM11:EM1048576)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="EN2" s="3">
-        <f>COUNT(EN11:EN1048576)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="EO2" s="3">
-        <f>COUNT(EO11:EO1048576)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="EP2" s="3">
-        <f>COUNT(EP11:EP1048576)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="EQ2" s="3">
-        <f>COUNT(EQ11:EQ1048576)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="ER2" s="3">
-        <f>COUNT(ER11:ER1048576)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="ES2" s="3">
-        <f>COUNT(ES11:ES1048576)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="ET2" s="3">
-        <f>COUNT(ET11:ET1048576)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="EU2" s="50"/>
       <c r="EV2" s="3">
-        <f>COUNT(EV11:EV1048576)</f>
+        <f t="shared" ref="EV2:FA2" si="5">COUNT(EV11:EV1048576)</f>
         <v>4</v>
       </c>
       <c r="EW2" s="3">
-        <f>COUNT(EW11:EW1048576)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="EX2" s="3">
-        <f>COUNT(EX11:EX1048576)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="EY2" s="3">
-        <f>COUNT(EY11:EY1048576)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="EZ2" s="3">
-        <f>COUNT(EZ11:EZ1048576)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="FA2" s="3">
-        <f>COUNT(FA11:FA1048576)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="FB2" s="50"/>
       <c r="FC2" s="3">
-        <f>COUNT(FC11:FC1048576)</f>
+        <f t="shared" ref="FC2:FI2" si="6">COUNT(FC11:FC1048576)</f>
         <v>25</v>
       </c>
       <c r="FD2" s="3">
-        <f>COUNT(FD11:FD1048576)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="FE2" s="3">
-        <f>COUNT(FE11:FE1048576)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="FF2" s="3">
-        <f>COUNT(FF11:FF1048576)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="FG2" s="3">
-        <f>COUNT(FG11:FG1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="FH2" s="3">
-        <f>COUNT(FH11:FH1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="FI2" s="3">
-        <f>COUNT(FI11:FI1048576)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="FJ2" s="50"/>
       <c r="FK2" s="3">
-        <f>COUNT(FK11:FK1048576)</f>
+        <f t="shared" ref="FK2:FS2" si="7">COUNT(FK11:FK1048576)</f>
         <v>8</v>
       </c>
       <c r="FL2" s="3">
-        <f>COUNT(FL11:FL1048576)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="FM2" s="3">
-        <f>COUNT(FM11:FM1048576)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="FN2" s="3">
-        <f>COUNT(FN11:FN1048576)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="FO2" s="3">
-        <f>COUNT(FO11:FO1048576)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="FP2" s="3">
-        <f>COUNT(FP11:FP1048576)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="FQ2" s="3">
-        <f>COUNT(FQ11:FQ1048576)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="FR2" s="3">
-        <f>COUNT(FR11:FR1048576)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="FS2" s="3">
-        <f>COUNT(FS11:FS1048576)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="FT2" s="50"/>
       <c r="FU2" s="3">
-        <f>COUNT(FU11:FU1048576)</f>
+        <f t="shared" ref="FU2:GB2" si="8">COUNT(FU11:FU1048576)</f>
         <v>9</v>
       </c>
       <c r="FV2" s="3">
-        <f>COUNT(FV11:FV1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="FW2" s="3">
-        <f>COUNT(FW11:FW1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="FX2" s="3">
-        <f>COUNT(FX11:FX1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="FY2" s="3">
-        <f>COUNT(FY11:FY1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="FZ2" s="3">
-        <f>COUNT(FZ11:FZ1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="GA2" s="3">
-        <f>COUNT(GA11:GA1048576)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="GB2" s="3">
-        <f>COUNT(GB11:GB1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="GC2" s="50"/>
@@ -48684,27 +49186,27 @@
       </c>
       <c r="GH2" s="50"/>
       <c r="GI2" s="3">
-        <f>COUNT(GI11:GI1048576)</f>
+        <f t="shared" ref="GI2:GN2" si="9">COUNT(GI11:GI1048576)</f>
         <v>0</v>
       </c>
       <c r="GJ2" s="3">
-        <f>COUNT(GJ11:GJ1048576)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="GK2" s="3">
-        <f>COUNT(GK11:GK1048576)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="GL2" s="3">
-        <f>COUNT(GL11:GL1048576)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="GM2" s="3">
-        <f>COUNT(GM11:GM1048576)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="GN2" s="3">
-        <f>COUNT(GN11:GN1048576)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -52234,7 +52736,7 @@
         <v>2217</v>
       </c>
       <c r="I11" s="39">
-        <f>COUNT(R11:FW11)</f>
+        <f t="shared" ref="I11:I74" si="10">COUNT(R11:FW11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="39"/>
@@ -52269,7 +52771,7 @@
         <v>2275</v>
       </c>
       <c r="I12" s="39">
-        <f>COUNT(R12:FW12)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J12" s="39"/>
@@ -52312,7 +52814,7 @@
         <v>2183</v>
       </c>
       <c r="I13" s="39">
-        <f>COUNT(R13:FW13)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J13" s="39"/>
@@ -52361,7 +52863,7 @@
         <v>2184</v>
       </c>
       <c r="I14" s="39">
-        <f>COUNT(R14:FW14)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J14" s="39"/>
@@ -52394,7 +52896,7 @@
         <v>2410</v>
       </c>
       <c r="I15" s="39">
-        <f>COUNT(R15:FW15)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K15" s="39" t="s">
@@ -52461,7 +52963,7 @@
         <v>2187</v>
       </c>
       <c r="I16" s="39">
-        <f>COUNT(R16:FW16)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="J16" s="39"/>
@@ -52541,7 +53043,7 @@
         <v>2411</v>
       </c>
       <c r="I17" s="39">
-        <f>COUNT(R17:FW17)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J17" s="39"/>
@@ -52603,7 +53105,7 @@
         <v>2188</v>
       </c>
       <c r="I18" s="39">
-        <f>COUNT(R18:FW18)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="J18" s="39"/>
@@ -52669,7 +53171,7 @@
         <v>2189</v>
       </c>
       <c r="I19" s="39">
-        <f>COUNT(R19:FW19)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J19" s="39"/>
@@ -52710,7 +53212,7 @@
         <v>2192</v>
       </c>
       <c r="I20" s="39">
-        <f>COUNT(R20:FW20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="39"/>
@@ -52739,7 +53241,7 @@
         <v>2412</v>
       </c>
       <c r="I21" s="39">
-        <f>COUNT(R21:FW21)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J21" s="39"/>
@@ -52779,7 +53281,7 @@
         <v>2450</v>
       </c>
       <c r="I22" s="39">
-        <f>COUNT(R22:FW22)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J22" s="40" t="s">
@@ -52830,7 +53332,7 @@
         <v>2193</v>
       </c>
       <c r="I23" s="39">
-        <f>COUNT(R23:FW23)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="39"/>
@@ -52864,7 +53366,7 @@
         <v>2413</v>
       </c>
       <c r="I24" s="39">
-        <f>COUNT(R24:FW24)</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="K24" s="40" t="s">
@@ -52990,7 +53492,7 @@
         <v>2191</v>
       </c>
       <c r="I25" s="39">
-        <f>COUNT(R25:FW25)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -53026,7 +53528,7 @@
         <v>2194</v>
       </c>
       <c r="I26" s="39">
-        <f>COUNT(R26:FW26)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J26" s="39"/>
@@ -53061,7 +53563,7 @@
         <v>2400</v>
       </c>
       <c r="I27" s="39">
-        <f>COUNT(R27:FW27)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J27" s="39"/>
@@ -53101,7 +53603,7 @@
         <v>2197</v>
       </c>
       <c r="I28" s="39">
-        <f>COUNT(R28:FW28)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J28" s="39"/>
@@ -53133,7 +53635,7 @@
         <v>2414</v>
       </c>
       <c r="I29" s="39">
-        <f>COUNT(R29:FW29)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J29" s="39"/>
@@ -53186,7 +53688,7 @@
         <v>2415</v>
       </c>
       <c r="I30" s="39">
-        <f>COUNT(R30:FW30)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J30" s="39"/>
@@ -53284,7 +53786,7 @@
         <v>2198</v>
       </c>
       <c r="I31" s="39">
-        <f>COUNT(R31:FW31)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J31" s="39"/>
@@ -53367,7 +53869,7 @@
         <v>2416</v>
       </c>
       <c r="I32" s="39">
-        <f>COUNT(R32:FW32)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="J32" s="39"/>
@@ -53459,7 +53961,7 @@
         <v>2199</v>
       </c>
       <c r="I33" s="39">
-        <f>COUNT(R33:FW33)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="J33" s="39"/>
@@ -53523,7 +54025,7 @@
         <v>2200</v>
       </c>
       <c r="I34" s="39">
-        <f>COUNT(R34:FW34)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="J34" s="39"/>
@@ -53594,7 +54096,7 @@
         <v>2201</v>
       </c>
       <c r="I35" s="39">
-        <f>COUNT(R35:FW35)</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="J35" s="39"/>
@@ -53730,7 +54232,7 @@
         <v>2202</v>
       </c>
       <c r="I36" s="39">
-        <f>COUNT(R36:FW36)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J36" s="39"/>
@@ -53785,7 +54287,7 @@
         <v>2203</v>
       </c>
       <c r="I37" s="39">
-        <f>COUNT(R37:FW37)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J37" s="39"/>
@@ -53823,7 +54325,7 @@
         <v>2204</v>
       </c>
       <c r="I38" s="39">
-        <f>COUNT(R38:FW38)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J38" s="39"/>
@@ -53861,7 +54363,7 @@
         <v>2205</v>
       </c>
       <c r="I39" s="39">
-        <f>COUNT(R39:FW39)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="J39" s="39"/>
@@ -53952,7 +54454,7 @@
         <v>2206</v>
       </c>
       <c r="I40" s="39">
-        <f>COUNT(R40:FW40)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J40" s="40" t="s">
@@ -53997,7 +54499,7 @@
         <v>2207</v>
       </c>
       <c r="I41" s="39">
-        <f>COUNT(R41:FW41)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J41" s="39"/>
@@ -54074,7 +54576,7 @@
         <v>2417</v>
       </c>
       <c r="I42" s="39">
-        <f>COUNT(R42:FW42)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J42" s="39"/>
@@ -54106,7 +54608,7 @@
         <v>2208</v>
       </c>
       <c r="I43" s="39">
-        <f>COUNT(R43:FW43)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J43" s="39"/>
@@ -54149,7 +54651,7 @@
         <v>2351</v>
       </c>
       <c r="I44" s="39">
-        <f>COUNT(R44:FW44)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J44" s="39"/>
@@ -54178,7 +54680,7 @@
         <v>2209</v>
       </c>
       <c r="I45" s="39">
-        <f>COUNT(R45:FW45)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J45" s="39"/>
@@ -54216,7 +54718,7 @@
         <v>2210</v>
       </c>
       <c r="I46" s="39">
-        <f>COUNT(R46:FW46)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J46" s="39"/>
@@ -54248,7 +54750,7 @@
         <v>2211</v>
       </c>
       <c r="I47" s="39">
-        <f>COUNT(R47:FW47)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J47" s="39"/>
@@ -54304,7 +54806,7 @@
         <v>2212</v>
       </c>
       <c r="I48" s="39">
-        <f>COUNT(R48:FW48)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J48" s="39"/>
@@ -54362,7 +54864,7 @@
         <v>2213</v>
       </c>
       <c r="I49" s="39">
-        <f>COUNT(R49:FW49)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J49" s="39"/>
@@ -54397,7 +54899,7 @@
         <v>2214</v>
       </c>
       <c r="I50" s="39">
-        <f>COUNT(R50:FW50)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J50" s="39"/>
@@ -54449,7 +54951,7 @@
         <v>2215</v>
       </c>
       <c r="I51" s="39">
-        <f>COUNT(R51:FW51)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J51" s="39"/>
@@ -54478,7 +54980,7 @@
         <v>2216</v>
       </c>
       <c r="I52" s="39">
-        <f>COUNT(R52:FW52)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J52" s="39"/>
@@ -54515,7 +55017,7 @@
         <v>2418</v>
       </c>
       <c r="I53" s="39">
-        <f>COUNT(R53:FW53)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J53" s="39"/>
@@ -54547,7 +55049,7 @@
         <v>2219</v>
       </c>
       <c r="I54" s="39">
-        <f>COUNT(R54:FW54)</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="J54" s="39"/>
@@ -54699,7 +55201,7 @@
         <v>2220</v>
       </c>
       <c r="I55" s="39">
-        <f>COUNT(R55:FW55)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J55" s="39"/>
@@ -54734,7 +55236,7 @@
         <v>2419</v>
       </c>
       <c r="I56" s="39">
-        <f>COUNT(R56:FW56)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J56" s="39"/>
@@ -54769,7 +55271,7 @@
         <v>1973</v>
       </c>
       <c r="I57" s="39">
-        <f>COUNT(R57:FW57)</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="J57" s="39"/>
@@ -54995,7 +55497,7 @@
         <v>2221</v>
       </c>
       <c r="I58" s="39">
-        <f>COUNT(R58:FW58)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J58" s="39"/>
@@ -55033,7 +55535,7 @@
         <v>2420</v>
       </c>
       <c r="I59" s="39">
-        <f>COUNT(R59:FW59)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J59" s="39"/>
@@ -55070,7 +55572,7 @@
         <v>2222</v>
       </c>
       <c r="I60" s="39">
-        <f>COUNT(R60:FW60)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J60" s="39" t="s">
@@ -55104,7 +55606,7 @@
         <v>2225</v>
       </c>
       <c r="I61" s="39">
-        <f>COUNT(R61:FW61)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J61" s="39"/>
@@ -55139,7 +55641,7 @@
         <v>2223</v>
       </c>
       <c r="I62" s="39">
-        <f>COUNT(R62:FW62)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J62" s="39"/>
@@ -55246,7 +55748,7 @@
         <v>2224</v>
       </c>
       <c r="I63" s="39">
-        <f>COUNT(R63:FW63)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J63" s="39"/>
@@ -55304,7 +55806,7 @@
         <v>2227</v>
       </c>
       <c r="I64" s="39">
-        <f>COUNT(R64:FW64)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J64" s="39"/>
@@ -55336,7 +55838,7 @@
         <v>2421</v>
       </c>
       <c r="I65" s="39">
-        <f>COUNT(R65:FW65)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J65" s="39"/>
@@ -55374,7 +55876,7 @@
         <v>2228</v>
       </c>
       <c r="I66" s="39">
-        <f>COUNT(R66:FW66)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J66" s="39"/>
@@ -55409,7 +55911,7 @@
         <v>2229</v>
       </c>
       <c r="I67" s="39">
-        <f>COUNT(R67:FW67)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J67" s="39"/>
@@ -55441,7 +55943,7 @@
         <v>2422</v>
       </c>
       <c r="I68" s="39">
-        <f>COUNT(R68:FW68)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J68" s="39"/>
@@ -55473,7 +55975,7 @@
         <v>2230</v>
       </c>
       <c r="I69" s="39">
-        <f>COUNT(R69:FW69)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J69" s="39"/>
@@ -55508,7 +56010,7 @@
         <v>2231</v>
       </c>
       <c r="I70" s="39">
-        <f>COUNT(R70:FW70)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J70" s="39"/>
@@ -55572,7 +56074,7 @@
         <v>2232</v>
       </c>
       <c r="I71" s="39">
-        <f>COUNT(R71:FW71)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71" s="39"/>
@@ -55604,7 +56106,7 @@
         <v>1980</v>
       </c>
       <c r="I72" s="39">
-        <f>COUNT(R72:FW72)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J72" s="39"/>
@@ -55639,7 +56141,7 @@
         <v>2423</v>
       </c>
       <c r="I73" s="39">
-        <f>COUNT(R73:FW73)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J73" s="39"/>
@@ -55673,7 +56175,7 @@
         <v>2233</v>
       </c>
       <c r="I74" s="39">
-        <f>COUNT(R74:FW74)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="39"/>
@@ -55711,7 +56213,7 @@
         <v>2234</v>
       </c>
       <c r="I75" s="39">
-        <f>COUNT(R75:FW75)</f>
+        <f t="shared" ref="I75:I138" si="11">COUNT(R75:FW75)</f>
         <v>1</v>
       </c>
       <c r="J75" s="39"/>
@@ -55746,7 +56248,7 @@
         <v>1974</v>
       </c>
       <c r="I76" s="39">
-        <f>COUNT(R76:FW76)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J76" s="39"/>
@@ -55778,7 +56280,7 @@
         <v>2235</v>
       </c>
       <c r="I77" s="39">
-        <f>COUNT(R77:FW77)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J77" s="39"/>
@@ -55810,7 +56312,7 @@
         <v>2237</v>
       </c>
       <c r="I78" s="39">
-        <f>COUNT(R78:FW78)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J78" s="39"/>
@@ -55848,7 +56350,7 @@
         <v>2238</v>
       </c>
       <c r="I79" s="39">
-        <f>COUNT(R79:FW79)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J79" s="39"/>
@@ -55880,7 +56382,7 @@
         <v>2239</v>
       </c>
       <c r="I80" s="39">
-        <f>COUNT(R80:FW80)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J80" s="39"/>
@@ -55915,7 +56417,7 @@
         <v>2240</v>
       </c>
       <c r="I81" s="39">
-        <f>COUNT(R81:FW81)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J81" s="39"/>
@@ -55944,7 +56446,7 @@
         <v>2241</v>
       </c>
       <c r="I82" s="39">
-        <f>COUNT(R82:FW82)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="J82" s="39"/>
@@ -56035,7 +56537,7 @@
         <v>2424</v>
       </c>
       <c r="I83" s="39">
-        <f>COUNT(R83:FW83)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J83" s="39"/>
@@ -56067,7 +56569,7 @@
         <v>2242</v>
       </c>
       <c r="I84" s="39">
-        <f>COUNT(R84:FW84)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="J84" s="39"/>
@@ -56144,7 +56646,7 @@
         <v>2457</v>
       </c>
       <c r="I85" s="39">
-        <f>COUNT(R85:FW85)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J85" s="39" t="s">
@@ -56181,7 +56683,7 @@
         <v>1847</v>
       </c>
       <c r="I86" s="39">
-        <f>COUNT(R86:FW86)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J86" s="39"/>
@@ -56215,7 +56717,7 @@
         <v>2243</v>
       </c>
       <c r="I87" s="39">
-        <f>COUNT(R87:FW87)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J87" s="39"/>
@@ -56247,7 +56749,7 @@
         <v>2244</v>
       </c>
       <c r="I88" s="39">
-        <f>COUNT(R88:FW88)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="J88" s="39"/>
@@ -56299,7 +56801,7 @@
         <v>2190</v>
       </c>
       <c r="I89" s="39">
-        <f>COUNT(R89:FW89)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="J89" s="39"/>
@@ -56351,7 +56853,7 @@
         <v>2245</v>
       </c>
       <c r="I90" s="39">
-        <f>COUNT(R90:FW90)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J90" s="39"/>
@@ -56389,7 +56891,7 @@
         <v>2246</v>
       </c>
       <c r="I91" s="39">
-        <f>COUNT(R91:FW91)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J91" s="39"/>
@@ -56424,7 +56926,7 @@
         <v>2236</v>
       </c>
       <c r="I92" s="39">
-        <f>COUNT(R92:FW92)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J92" s="39"/>
@@ -56456,7 +56958,7 @@
         <v>2247</v>
       </c>
       <c r="I93" s="39">
-        <f>COUNT(R93:FW93)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J93" s="39"/>
@@ -56488,7 +56990,7 @@
         <v>2248</v>
       </c>
       <c r="I94" s="39">
-        <f>COUNT(R94:FW94)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="J94" s="39"/>
@@ -56594,7 +57096,7 @@
         <v>2396</v>
       </c>
       <c r="I95" s="39">
-        <f>COUNT(R95:FW95)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J95" s="39"/>
@@ -56626,7 +57128,7 @@
         <v>1820</v>
       </c>
       <c r="I96" s="39">
-        <f>COUNT(R96:FW96)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="J96" s="39"/>
@@ -56687,7 +57189,7 @@
         <v>2397</v>
       </c>
       <c r="I97" s="39">
-        <f>COUNT(R97:FW97)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J97" s="39"/>
@@ -56719,7 +57221,7 @@
         <v>2249</v>
       </c>
       <c r="I98" s="39">
-        <f>COUNT(R98:FW98)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J98" s="39"/>
@@ -56751,7 +57253,7 @@
         <v>2425</v>
       </c>
       <c r="I99" s="39">
-        <f>COUNT(R99:FW99)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J99" s="39"/>
@@ -56786,7 +57288,7 @@
         <v>2250</v>
       </c>
       <c r="I100" s="39">
-        <f>COUNT(R100:FW100)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J100" s="39"/>
@@ -56818,7 +57320,7 @@
         <v>2251</v>
       </c>
       <c r="I101" s="39">
-        <f>COUNT(R101:FW101)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J101" s="39"/>
@@ -56855,7 +57357,7 @@
         <v>2426</v>
       </c>
       <c r="I102" s="39">
-        <f>COUNT(R102:FW102)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J102" s="39"/>
@@ -56887,7 +57389,7 @@
         <v>2252</v>
       </c>
       <c r="I103" s="39">
-        <f>COUNT(R103:FW103)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="J103" s="39"/>
@@ -56955,7 +57457,7 @@
         <v>2253</v>
       </c>
       <c r="I104" s="39">
-        <f>COUNT(R104:FW104)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J104" s="39"/>
@@ -56987,7 +57489,7 @@
         <v>2255</v>
       </c>
       <c r="I105" s="39">
-        <f>COUNT(R105:FW105)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J105" s="39"/>
@@ -57019,7 +57521,7 @@
         <v>2256</v>
       </c>
       <c r="I106" s="39">
-        <f>COUNT(R106:FW106)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J106" s="39"/>
@@ -57051,7 +57553,7 @@
         <v>2401</v>
       </c>
       <c r="I107" s="39">
-        <f>COUNT(R107:FW107)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="J107" s="39"/>
@@ -57101,7 +57603,7 @@
         <v>2257</v>
       </c>
       <c r="I108" s="39">
-        <f>COUNT(R108:FW108)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="J108" s="39"/>
@@ -57184,7 +57686,7 @@
         <v>2427</v>
       </c>
       <c r="I109" s="39">
-        <f>COUNT(R109:FW109)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J109" s="39"/>
@@ -57216,7 +57718,7 @@
         <v>2258</v>
       </c>
       <c r="I110" s="39">
-        <f>COUNT(R110:FW110)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J110" s="39"/>
@@ -57248,7 +57750,7 @@
         <v>2402</v>
       </c>
       <c r="I111" s="39">
-        <f>COUNT(R111:FW111)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J111" s="39"/>
@@ -57280,7 +57782,7 @@
         <v>2428</v>
       </c>
       <c r="I112" s="39">
-        <f>COUNT(R112:FW112)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J112" s="39"/>
@@ -57317,7 +57819,7 @@
         <v>2429</v>
       </c>
       <c r="I113" s="39">
-        <f>COUNT(R113:FW113)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="J113" s="39"/>
@@ -57381,7 +57883,7 @@
         <v>2430</v>
       </c>
       <c r="I114" s="39">
-        <f>COUNT(R114:FW114)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J114" s="39"/>
@@ -57497,7 +57999,7 @@
         <v>2260</v>
       </c>
       <c r="I115" s="39">
-        <f>COUNT(R115:FW115)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J115" s="39"/>
@@ -57527,7 +58029,7 @@
       </c>
       <c r="H116" s="42"/>
       <c r="I116" s="39">
-        <f>COUNT(R116:FW116)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J116" s="39"/>
@@ -57559,7 +58061,7 @@
         <v>2262</v>
       </c>
       <c r="I117" s="39">
-        <f>COUNT(R117:FW117)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J117" s="39"/>
@@ -57596,7 +58098,7 @@
         <v>2263</v>
       </c>
       <c r="I118" s="39">
-        <f>COUNT(R118:FW118)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="J118" s="39"/>
@@ -57721,7 +58223,7 @@
         <v>2264</v>
       </c>
       <c r="I119" s="39">
-        <f>COUNT(R119:FW119)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K119" s="39" t="s">
@@ -57778,7 +58280,7 @@
         <v>2267</v>
       </c>
       <c r="I120" s="39">
-        <f>COUNT(R120:FW120)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="J120" s="39"/>
@@ -57857,7 +58359,7 @@
         <v>2265</v>
       </c>
       <c r="I121" s="39">
-        <f>COUNT(R121:FW121)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J121" s="39"/>
@@ -57894,7 +58396,7 @@
         <v>2431</v>
       </c>
       <c r="I122" s="39">
-        <f>COUNT(R122:FW122)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="K122" s="39" t="s">
@@ -57931,7 +58433,7 @@
       </c>
       <c r="H123" s="42"/>
       <c r="I123" s="39">
-        <f>COUNT(R123:FW123)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J123" s="39"/>
@@ -57960,7 +58462,7 @@
         <v>2266</v>
       </c>
       <c r="I124" s="39">
-        <f>COUNT(R124:FW124)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J124" s="39"/>
@@ -57994,7 +58496,7 @@
         <v>2453</v>
       </c>
       <c r="I125" s="39">
-        <f>COUNT(R125:FW125)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O125" s="40" t="s">
@@ -58051,7 +58553,7 @@
         <v>2268</v>
       </c>
       <c r="I126" s="39">
-        <f>COUNT(R126:FW126)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J126" s="39"/>
@@ -58094,7 +58596,7 @@
         <v>2269</v>
       </c>
       <c r="I127" s="39">
-        <f>COUNT(R127:FW127)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="O127" s="40" t="s">
@@ -58206,7 +58708,7 @@
       </c>
       <c r="H128" s="42"/>
       <c r="I128" s="39">
-        <f>COUNT(R128:FW128)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J128" s="39" t="s">
@@ -58243,7 +58745,7 @@
         <v>2432</v>
       </c>
       <c r="I129" s="39">
-        <f>COUNT(R129:FW129)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="J129" s="40" t="s">
@@ -58321,7 +58823,7 @@
         <v>2270</v>
       </c>
       <c r="I130" s="39">
-        <f>COUNT(R130:FW130)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J130" s="39"/>
@@ -58356,7 +58858,7 @@
         <v>2271</v>
       </c>
       <c r="I131" s="39">
-        <f>COUNT(R131:FW131)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="J131" s="39"/>
@@ -58417,7 +58919,7 @@
         <v>2272</v>
       </c>
       <c r="I132" s="39">
-        <f>COUNT(R132:FW132)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J132" s="39"/>
@@ -58455,7 +58957,7 @@
         <v>2273</v>
       </c>
       <c r="I133" s="39">
-        <f>COUNT(R133:FW133)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="J133" s="39"/>
@@ -58520,7 +59022,7 @@
         <v>2274</v>
       </c>
       <c r="I134" s="39">
-        <f>COUNT(R134:FW134)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="J134" s="39"/>
@@ -58591,7 +59093,7 @@
         <v>2276</v>
       </c>
       <c r="I135" s="39">
-        <f>COUNT(R135:FW135)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J135" s="39"/>
@@ -58626,7 +59128,7 @@
         <v>2277</v>
       </c>
       <c r="I136" s="39">
-        <f>COUNT(R136:FW136)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J136" s="39"/>
@@ -58658,7 +59160,7 @@
         <v>2278</v>
       </c>
       <c r="I137" s="39">
-        <f>COUNT(R137:FW137)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J137" s="39"/>
@@ -58690,7 +59192,7 @@
         <v>2279</v>
       </c>
       <c r="I138" s="39">
-        <f>COUNT(R138:FW138)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J138" s="39"/>
@@ -58722,7 +59224,7 @@
         <v>2280</v>
       </c>
       <c r="I139" s="39">
-        <f>COUNT(R139:FW139)</f>
+        <f t="shared" ref="I139:I202" si="12">COUNT(R139:FW139)</f>
         <v>12</v>
       </c>
       <c r="J139" s="39"/>
@@ -58798,7 +59300,7 @@
         <v>2281</v>
       </c>
       <c r="I140" s="39">
-        <f>COUNT(R140:FW140)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J140" s="39"/>
@@ -58835,7 +59337,7 @@
         <v>2282</v>
       </c>
       <c r="I141" s="39">
-        <f>COUNT(R141:FW141)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J141" s="39"/>
@@ -58867,7 +59369,7 @@
         <v>2458</v>
       </c>
       <c r="I142" s="39">
-        <f>COUNT(R142:FW142)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J142" s="39"/>
@@ -58896,7 +59398,7 @@
         <v>2283</v>
       </c>
       <c r="I143" s="39">
-        <f>COUNT(R143:FW143)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J143" s="39"/>
@@ -58928,7 +59430,7 @@
         <v>2284</v>
       </c>
       <c r="I144" s="39">
-        <f>COUNT(R144:FW144)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J144" s="39"/>
@@ -58995,7 +59497,7 @@
         <v>2447</v>
       </c>
       <c r="I145" s="39">
-        <f>COUNT(R145:FW145)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J145" s="39"/>
@@ -59024,7 +59526,7 @@
         <v>2286</v>
       </c>
       <c r="I146" s="39">
-        <f>COUNT(R146:FW146)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J146" s="39"/>
@@ -59062,7 +59564,7 @@
         <v>2261</v>
       </c>
       <c r="I147" s="39">
-        <f>COUNT(R147:FW147)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="K147" s="39" t="s">
@@ -59125,7 +59627,7 @@
         <v>2288</v>
       </c>
       <c r="I148" s="39">
-        <f>COUNT(R148:FW148)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J148" s="39"/>
@@ -59162,7 +59664,7 @@
         <v>2433</v>
       </c>
       <c r="I149" s="39">
-        <f>COUNT(R149:FW149)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J149" s="39"/>
@@ -59199,7 +59701,7 @@
         <v>1837</v>
       </c>
       <c r="I150" s="39">
-        <f>COUNT(R150:FW150)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J150" s="39"/>
@@ -59260,7 +59762,7 @@
         <v>2434</v>
       </c>
       <c r="I151" s="39">
-        <f>COUNT(R151:FW151)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J151" s="39"/>
@@ -59340,7 +59842,7 @@
         <v>2289</v>
       </c>
       <c r="I152" s="39">
-        <f>COUNT(R152:FW152)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J152" s="39"/>
@@ -59386,7 +59888,7 @@
         <v>2291</v>
       </c>
       <c r="I153" s="39">
-        <f>COUNT(R153:FW153)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="J153" s="39"/>
@@ -59492,7 +59994,7 @@
         <v>2290</v>
       </c>
       <c r="I154" s="39">
-        <f>COUNT(R154:FW154)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J154" s="39"/>
@@ -59524,7 +60026,7 @@
         <v>2292</v>
       </c>
       <c r="I155" s="39">
-        <f>COUNT(R155:FW155)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J155" s="39"/>
@@ -59588,7 +60090,7 @@
         <v>2293</v>
       </c>
       <c r="I156" s="39">
-        <f>COUNT(R156:FW156)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J156" s="40" t="s">
@@ -59630,7 +60132,7 @@
         <v>2294</v>
       </c>
       <c r="I157" s="39">
-        <f>COUNT(R157:FW157)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J157" s="39"/>
@@ -59694,7 +60196,7 @@
         <v>2435</v>
       </c>
       <c r="I158" s="39">
-        <f>COUNT(R158:FW158)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J158" s="40" t="s">
@@ -59766,7 +60268,7 @@
         <v>2295</v>
       </c>
       <c r="I159" s="39">
-        <f>COUNT(R159:FW159)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J159" s="39"/>
@@ -59801,7 +60303,7 @@
         <v>2296</v>
       </c>
       <c r="I160" s="39">
-        <f>COUNT(R160:FW160)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J160" s="39"/>
@@ -59833,7 +60335,7 @@
         <v>2297</v>
       </c>
       <c r="I161" s="39">
-        <f>COUNT(R161:FW161)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J161" s="39"/>
@@ -59865,7 +60367,7 @@
         <v>2298</v>
       </c>
       <c r="I162" s="39">
-        <f>COUNT(R162:FW162)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -59895,7 +60397,7 @@
         <v>2398</v>
       </c>
       <c r="I163" s="39">
-        <f>COUNT(R163:FW163)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J163" s="39"/>
@@ -59927,7 +60429,7 @@
         <v>2436</v>
       </c>
       <c r="I164" s="39">
-        <f>COUNT(R164:FW164)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J164" s="39"/>
@@ -59959,7 +60461,7 @@
         <v>2299</v>
       </c>
       <c r="I165" s="39">
-        <f>COUNT(R165:FW165)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J165" s="39"/>
@@ -59991,7 +60493,7 @@
         <v>2300</v>
       </c>
       <c r="I166" s="39">
-        <f>COUNT(R166:FW166)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J166" s="39"/>
@@ -60040,7 +60542,7 @@
         <v>2301</v>
       </c>
       <c r="I167" s="39">
-        <f>COUNT(R167:FW167)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J167" s="39"/>
@@ -60075,7 +60577,7 @@
         <v>2303</v>
       </c>
       <c r="I168" s="39">
-        <f>COUNT(R168:FW168)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J168" s="39"/>
@@ -60110,7 +60612,7 @@
         <v>2304</v>
       </c>
       <c r="I169" s="39">
-        <f>COUNT(R169:FW169)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J169" s="39"/>
@@ -60142,7 +60644,7 @@
         <v>2302</v>
       </c>
       <c r="I170" s="39">
-        <f>COUNT(R170:FW170)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J170" s="39"/>
@@ -60174,7 +60676,7 @@
         <v>2437</v>
       </c>
       <c r="I171" s="39">
-        <f>COUNT(R171:FW171)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="J171" s="39"/>
@@ -60221,7 +60723,7 @@
         <v>2305</v>
       </c>
       <c r="I172" s="39">
-        <f>COUNT(R172:FW172)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J172" s="39"/>
@@ -60258,7 +60760,7 @@
         <v>1977</v>
       </c>
       <c r="I173" s="39">
-        <f>COUNT(R173:FW173)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J173" s="39"/>
@@ -60290,7 +60792,7 @@
         <v>2460</v>
       </c>
       <c r="I174" s="39">
-        <f>COUNT(R174:FW174)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J174" s="39" t="s">
@@ -60327,7 +60829,7 @@
         <v>2404</v>
       </c>
       <c r="I175" s="39">
-        <f>COUNT(R175:FW175)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J175" s="39"/>
@@ -60359,7 +60861,7 @@
         <v>2407</v>
       </c>
       <c r="I176" s="39">
-        <f>COUNT(R176:FW176)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J176" s="39" t="s">
@@ -60394,7 +60896,7 @@
       </c>
       <c r="H177" s="42"/>
       <c r="I177" s="39">
-        <f>COUNT(R177:FW177)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J177" s="39"/>
@@ -60426,7 +60928,7 @@
         <v>2306</v>
       </c>
       <c r="I178" s="39">
-        <f>COUNT(R178:FW178)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J178" s="39"/>
@@ -60458,7 +60960,7 @@
         <v>2307</v>
       </c>
       <c r="I179" s="39">
-        <f>COUNT(R179:FW179)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J179" s="39"/>
@@ -60490,7 +60992,7 @@
         <v>2309</v>
       </c>
       <c r="I180" s="39">
-        <f>COUNT(R180:FW180)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J180" s="39"/>
@@ -60525,7 +61027,7 @@
         <v>2310</v>
       </c>
       <c r="I181" s="39">
-        <f>COUNT(R181:FW181)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J181" s="39"/>
@@ -60580,7 +61082,7 @@
         <v>2459</v>
       </c>
       <c r="I182" s="39">
-        <f>COUNT(R182:FW182)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J182" s="39"/>
@@ -60609,7 +61111,7 @@
         <v>1749</v>
       </c>
       <c r="I183" s="39">
-        <f>COUNT(R183:FW183)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K183" s="40" t="s">
@@ -60642,7 +61144,7 @@
         <v>2311</v>
       </c>
       <c r="I184" s="39">
-        <f>COUNT(R184:FW184)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J184" s="39"/>
@@ -60721,7 +61223,7 @@
         <v>2312</v>
       </c>
       <c r="I185" s="39">
-        <f>COUNT(R185:FW185)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J185" s="39"/>
@@ -60756,7 +61258,7 @@
         <v>2313</v>
       </c>
       <c r="I186" s="39">
-        <f>COUNT(R186:FW186)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J186" s="39"/>
@@ -60788,7 +61290,7 @@
         <v>2438</v>
       </c>
       <c r="I187" s="39">
-        <f>COUNT(R187:FW187)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J187" s="39"/>
@@ -60825,7 +61327,7 @@
         <v>1823</v>
       </c>
       <c r="I188" s="39">
-        <f>COUNT(R188:FW188)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="J188" s="39"/>
@@ -60889,7 +61391,7 @@
         <v>2439</v>
       </c>
       <c r="I189" s="39">
-        <f>COUNT(R189:FW189)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J189" s="39"/>
@@ -60932,7 +61434,7 @@
         <v>2314</v>
       </c>
       <c r="I190" s="39">
-        <f>COUNT(R190:FW190)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J190" s="39"/>
@@ -60970,7 +61472,7 @@
         <v>2403</v>
       </c>
       <c r="I191" s="39">
-        <f>COUNT(R191:FW191)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J191" s="39" t="s">
@@ -61007,7 +61509,7 @@
         <v>2315</v>
       </c>
       <c r="I192" s="39">
-        <f>COUNT(R192:FW192)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J192" s="39"/>
@@ -61036,7 +61538,7 @@
         <v>2316</v>
       </c>
       <c r="I193" s="39">
-        <f>COUNT(R193:FW193)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J193" s="39"/>
@@ -61073,7 +61575,7 @@
         <v>2317</v>
       </c>
       <c r="I194" s="39">
-        <f>COUNT(R194:FW194)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M194" s="40" t="s">
@@ -61109,7 +61611,7 @@
         <v>2318</v>
       </c>
       <c r="I195" s="39">
-        <f>COUNT(R195:FW195)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J195" s="39"/>
@@ -61141,7 +61643,7 @@
         <v>2319</v>
       </c>
       <c r="I196" s="39">
-        <f>COUNT(R196:FW196)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J196" s="39"/>
@@ -61236,7 +61738,7 @@
         <v>2368</v>
       </c>
       <c r="I197" s="39">
-        <f>COUNT(R197:FW197)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J197" s="39"/>
@@ -61268,7 +61770,7 @@
         <v>2320</v>
       </c>
       <c r="I198" s="39">
-        <f>COUNT(R198:FW198)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J198" s="39"/>
@@ -61297,7 +61799,7 @@
         <v>2321</v>
       </c>
       <c r="I199" s="39">
-        <f>COUNT(R199:FW199)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J199" s="39"/>
@@ -61343,7 +61845,7 @@
         <v>2322</v>
       </c>
       <c r="I200" s="39">
-        <f>COUNT(R200:FW200)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L200" s="40" t="s">
@@ -61379,7 +61881,7 @@
         <v>2323</v>
       </c>
       <c r="I201" s="39">
-        <f>COUNT(R201:FW201)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J201" s="39"/>
@@ -61411,7 +61913,7 @@
         <v>2324</v>
       </c>
       <c r="I202" s="39">
-        <f>COUNT(R202:FW202)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J202" s="39" t="s">
@@ -61448,7 +61950,7 @@
         <v>2325</v>
       </c>
       <c r="I203" s="39">
-        <f>COUNT(R203:FW203)</f>
+        <f t="shared" ref="I203:I266" si="13">COUNT(R203:FW203)</f>
         <v>2</v>
       </c>
       <c r="J203" s="40" t="s">
@@ -61493,7 +61995,7 @@
         <v>2326</v>
       </c>
       <c r="I204" s="39">
-        <f>COUNT(R204:FW204)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J204" s="39"/>
@@ -61525,7 +62027,7 @@
         <v>2327</v>
       </c>
       <c r="I205" s="39">
-        <f>COUNT(R205:FW205)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J205" s="39"/>
@@ -61557,7 +62059,7 @@
         <v>2328</v>
       </c>
       <c r="I206" s="39">
-        <f>COUNT(R206:FW206)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J206" s="39"/>
@@ -61592,7 +62094,7 @@
         <v>2346</v>
       </c>
       <c r="I207" s="39">
-        <f>COUNT(R207:FW207)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J207" s="39"/>
@@ -61624,7 +62126,7 @@
         <v>2329</v>
       </c>
       <c r="I208" s="39">
-        <f>COUNT(R208:FW208)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J208" s="39"/>
@@ -61661,7 +62163,7 @@
         <v>1760</v>
       </c>
       <c r="I209" s="39">
-        <f>COUNT(R209:FW209)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J209" s="39"/>
@@ -61704,7 +62206,7 @@
         <v>2330</v>
       </c>
       <c r="I210" s="39">
-        <f>COUNT(R210:FW210)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J210" s="39"/>
@@ -61736,7 +62238,7 @@
         <v>2399</v>
       </c>
       <c r="I211" s="39">
-        <f>COUNT(R211:FW211)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J211" s="39"/>
@@ -61770,7 +62272,7 @@
         <v>1754</v>
       </c>
       <c r="I212" s="39">
-        <f>COUNT(R212:FW212)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J212" s="40" t="s">
@@ -61860,7 +62362,7 @@
         <v>2331</v>
       </c>
       <c r="I213" s="39">
-        <f>COUNT(R213:FW213)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J213" s="39"/>
@@ -61912,7 +62414,7 @@
         <v>2332</v>
       </c>
       <c r="I214" s="39">
-        <f>COUNT(R214:FW214)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J214" s="39"/>
@@ -61950,7 +62452,7 @@
         <v>2333</v>
       </c>
       <c r="I215" s="39">
-        <f>COUNT(R215:FW215)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J215" s="39"/>
@@ -62075,7 +62577,7 @@
         <v>2334</v>
       </c>
       <c r="I216" s="39">
-        <f>COUNT(R216:FW216)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J216" s="39"/>
@@ -62107,7 +62609,7 @@
         <v>2335</v>
       </c>
       <c r="I217" s="39">
-        <f>COUNT(R217:FW217)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J217" s="39"/>
@@ -62142,7 +62644,7 @@
         <v>2440</v>
       </c>
       <c r="I218" s="39">
-        <f>COUNT(R218:FW218)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="J218" s="39"/>
@@ -62221,7 +62723,7 @@
         <v>2336</v>
       </c>
       <c r="I219" s="39">
-        <f>COUNT(R219:FW219)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J219" s="39"/>
@@ -62256,7 +62758,7 @@
         <v>2441</v>
       </c>
       <c r="I220" s="39">
-        <f>COUNT(R220:FW220)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J220" s="39"/>
@@ -62291,7 +62793,7 @@
         <v>2337</v>
       </c>
       <c r="I221" s="39">
-        <f>COUNT(R221:FW221)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J221" s="39"/>
@@ -62337,7 +62839,7 @@
         <v>2339</v>
       </c>
       <c r="I222" s="39">
-        <f>COUNT(R222:FW222)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J222" s="39"/>
@@ -62369,7 +62871,7 @@
         <v>2442</v>
       </c>
       <c r="I223" s="39">
-        <f>COUNT(R223:FW223)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K223" s="40" t="s">
@@ -62408,7 +62910,7 @@
         <v>2340</v>
       </c>
       <c r="I224" s="39">
-        <f>COUNT(R224:FW224)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J224" s="39"/>
@@ -62472,7 +62974,7 @@
         <v>2341</v>
       </c>
       <c r="I225" s="39">
-        <f>COUNT(R225:FW225)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J225" s="39"/>
@@ -62510,7 +63012,7 @@
         <v>2342</v>
       </c>
       <c r="I226" s="39">
-        <f>COUNT(R226:FW226)</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J226" s="39" t="s">
@@ -62619,7 +63121,7 @@
         <v>2443</v>
       </c>
       <c r="I227" s="39">
-        <f>COUNT(R227:FW227)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J227" s="39"/>
@@ -62680,7 +63182,7 @@
         <v>2343</v>
       </c>
       <c r="I228" s="39">
-        <f>COUNT(R228:FW228)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J228" s="39"/>
@@ -62712,7 +63214,7 @@
         <v>2344</v>
       </c>
       <c r="I229" s="39">
-        <f>COUNT(R229:FW229)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J229" s="39"/>
@@ -62767,7 +63269,7 @@
         <v>2345</v>
       </c>
       <c r="I230" s="39">
-        <f>COUNT(R230:FW230)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J230" s="39"/>
@@ -62816,7 +63318,7 @@
         <v>2444</v>
       </c>
       <c r="I231" s="39">
-        <f>COUNT(R231:FW231)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J231" s="39"/>
@@ -62877,7 +63379,7 @@
         <v>1888</v>
       </c>
       <c r="I232" s="39">
-        <f>COUNT(R232:FW232)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M232" s="40" t="s">
@@ -62913,7 +63415,7 @@
         <v>2445</v>
       </c>
       <c r="I233" s="39">
-        <f>COUNT(R233:FW233)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J233" s="39"/>
@@ -62947,7 +63449,7 @@
         <v>2350</v>
       </c>
       <c r="I234" s="39">
-        <f>COUNT(R234:FW234)</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="O234" s="40" t="s">
@@ -63061,7 +63563,7 @@
         <v>2349</v>
       </c>
       <c r="I235" s="39">
-        <f>COUNT(R235:FW235)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J235" s="39"/>
@@ -63104,7 +63606,7 @@
         <v>2352</v>
       </c>
       <c r="I236" s="39">
-        <f>COUNT(R236:FW236)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J236" s="39"/>
@@ -63142,7 +63644,7 @@
         <v>2353</v>
       </c>
       <c r="I237" s="39">
-        <f>COUNT(R237:FW237)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J237" s="39"/>
@@ -63171,7 +63673,7 @@
         <v>2354</v>
       </c>
       <c r="I238" s="39">
-        <f>COUNT(R238:FW238)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J238" s="39"/>
@@ -63208,7 +63710,7 @@
         <v>2355</v>
       </c>
       <c r="I239" s="39">
-        <f>COUNT(R239:FW239)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J239" s="39"/>
@@ -63240,7 +63742,7 @@
         <v>2356</v>
       </c>
       <c r="I240" s="39">
-        <f>COUNT(R240:FW240)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J240" s="39"/>
@@ -63272,7 +63774,7 @@
         <v>2446</v>
       </c>
       <c r="I241" s="39">
-        <f>COUNT(R241:FW241)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J241" s="39"/>
@@ -63342,7 +63844,7 @@
         <v>2357</v>
       </c>
       <c r="I242" s="39">
-        <f>COUNT(R242:FW242)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J242" s="39"/>
@@ -63385,7 +63887,7 @@
         <v>2358</v>
       </c>
       <c r="I243" s="39">
-        <f>COUNT(R243:FW243)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J243" s="39"/>
@@ -63417,7 +63919,7 @@
         <v>2358</v>
       </c>
       <c r="I244" s="39">
-        <f>COUNT(R244:FW244)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J244" s="39"/>
@@ -63452,7 +63954,7 @@
         <v>2359</v>
       </c>
       <c r="I245" s="39">
-        <f>COUNT(R245:FW245)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L245" s="40" t="s">
@@ -63536,7 +64038,7 @@
         <v>2360</v>
       </c>
       <c r="I246" s="39">
-        <f>COUNT(R246:FW246)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J246" s="39"/>
@@ -63601,7 +64103,7 @@
         <v>2361</v>
       </c>
       <c r="I247" s="39">
-        <f>COUNT(R247:FW247)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J247" s="39"/>
@@ -63633,7 +64135,7 @@
         <v>2185</v>
       </c>
       <c r="I248" s="39">
-        <f>COUNT(R248:FW248)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J248" s="39"/>
@@ -63665,7 +64167,7 @@
         <v>2362</v>
       </c>
       <c r="I249" s="39">
-        <f>COUNT(R249:FW249)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J249" s="39"/>
@@ -63699,7 +64201,7 @@
         <v>2363</v>
       </c>
       <c r="I250" s="39">
-        <f>COUNT(R250:FW250)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J250" s="39"/>
@@ -63731,7 +64233,7 @@
         <v>2182</v>
       </c>
       <c r="I251" s="39">
-        <f>COUNT(R251:FW251)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J251" s="39"/>
@@ -63829,7 +64331,7 @@
         <v>2364</v>
       </c>
       <c r="I252" s="39">
-        <f>COUNT(R252:FW252)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J252" s="39"/>
@@ -63864,7 +64366,7 @@
         <v>2259</v>
       </c>
       <c r="I253" s="39">
-        <f>COUNT(R253:FW253)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J253" s="40" t="s">
@@ -63909,7 +64411,7 @@
         <v>2285</v>
       </c>
       <c r="I254" s="39">
-        <f>COUNT(R254:FW254)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J254" s="39"/>
@@ -63941,7 +64443,7 @@
         <v>2338</v>
       </c>
       <c r="I255" s="39">
-        <f>COUNT(R255:FW255)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J255" s="39"/>
@@ -63973,7 +64475,7 @@
         <v>2348</v>
       </c>
       <c r="I256" s="39">
-        <f>COUNT(R256:FW256)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J256" s="40" t="s">
@@ -64027,7 +64529,7 @@
         <v>2308</v>
       </c>
       <c r="I257" s="39">
-        <f>COUNT(R257:FW257)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J257" s="39"/>
@@ -64056,7 +64558,7 @@
         <v>2393</v>
       </c>
       <c r="I258" s="39">
-        <f>COUNT(R258:FW258)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J258" s="39"/>
@@ -64102,7 +64604,7 @@
         <v>2365</v>
       </c>
       <c r="I259" s="39">
-        <f>COUNT(R259:FW259)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J259" s="40" t="s">
@@ -64144,7 +64646,7 @@
         <v>2366</v>
       </c>
       <c r="I260" s="39">
-        <f>COUNT(R260:FW260)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J260" s="39"/>
@@ -64184,7 +64686,7 @@
         <v>2580</v>
       </c>
       <c r="I261" s="39">
-        <f>COUNT(R261:FW261)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="J261" s="39"/>
@@ -64285,7 +64787,7 @@
         <v>2367</v>
       </c>
       <c r="I262" s="39">
-        <f>COUNT(R262:FW262)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J262" s="39"/>
@@ -64322,7 +64824,7 @@
         <v>2405</v>
       </c>
       <c r="I263" s="39">
-        <f>COUNT(R263:FW263)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J263" s="39" t="s">
@@ -64359,7 +64861,7 @@
         <v>2408</v>
       </c>
       <c r="I264" s="39">
-        <f>COUNT(R264:FW264)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J264" s="40" t="s">
@@ -64395,7 +64897,7 @@
         <v>2195</v>
       </c>
       <c r="I265" s="39">
-        <f>COUNT(R265:FW265)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J265" s="39"/>
@@ -64427,7 +64929,7 @@
         <v>2406</v>
       </c>
       <c r="I266" s="39">
-        <f>COUNT(R266:FW266)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J266" s="39" t="s">
@@ -64461,7 +64963,7 @@
       </c>
       <c r="H267" s="42"/>
       <c r="I267" s="39">
-        <f t="shared" ref="I267:I312" si="0">COUNT(R267:FW267)</f>
+        <f t="shared" ref="I267:I312" si="14">COUNT(R267:FW267)</f>
         <v>23</v>
       </c>
       <c r="J267" s="39"/>
@@ -64568,7 +65070,7 @@
         <v>2448</v>
       </c>
       <c r="I268" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -64598,7 +65100,7 @@
         <v>2461</v>
       </c>
       <c r="I269" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J269" s="39" t="s">
@@ -64635,7 +65137,7 @@
         <v>2369</v>
       </c>
       <c r="I270" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J270" s="39"/>
@@ -64667,7 +65169,7 @@
         <v>2226</v>
       </c>
       <c r="I271" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J271" s="39"/>
@@ -64780,7 +65282,7 @@
         <v>2370</v>
       </c>
       <c r="I272" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J272" s="39"/>
@@ -64812,7 +65314,7 @@
         <v>2371</v>
       </c>
       <c r="I273" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J273" s="39"/>
@@ -64847,7 +65349,7 @@
         <v>2372</v>
       </c>
       <c r="I274" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J274" s="39"/>
@@ -64947,7 +65449,7 @@
         <v>2449</v>
       </c>
       <c r="I275" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J275" s="39"/>
@@ -64984,7 +65486,7 @@
         <v>2449</v>
       </c>
       <c r="I276" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J276" s="39"/>
@@ -65021,7 +65523,7 @@
         <v>2373</v>
       </c>
       <c r="I277" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J277" s="39"/>
@@ -65062,7 +65564,7 @@
         <v>2374</v>
       </c>
       <c r="I278" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="J278" s="39"/>
@@ -65111,7 +65613,7 @@
         <v>2375</v>
       </c>
       <c r="I279" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J279" s="39"/>
@@ -65146,7 +65648,7 @@
       </c>
       <c r="H280" s="42"/>
       <c r="I280" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="J280" s="39"/>
@@ -65198,7 +65700,7 @@
         <v>2451</v>
       </c>
       <c r="I281" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K281" s="40" t="s">
@@ -65237,7 +65739,7 @@
         <v>2376</v>
       </c>
       <c r="I282" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J282" s="39"/>
@@ -65266,7 +65768,7 @@
         <v>2377</v>
       </c>
       <c r="I283" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J283" s="39"/>
@@ -65296,7 +65798,7 @@
       </c>
       <c r="H284" s="42"/>
       <c r="I284" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="J284" s="40" t="s">
@@ -65371,7 +65873,7 @@
         <v>2378</v>
       </c>
       <c r="I285" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J285" s="39"/>
@@ -65400,7 +65902,7 @@
         <v>2379</v>
       </c>
       <c r="I286" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J286" s="39"/>
@@ -65432,7 +65934,7 @@
         <v>2380</v>
       </c>
       <c r="I287" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J287" s="39"/>
@@ -65464,7 +65966,7 @@
         <v>2254</v>
       </c>
       <c r="I288" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K288" s="40" t="s">
@@ -65497,7 +65999,7 @@
         <v>2287</v>
       </c>
       <c r="I289" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J289" s="39"/>
@@ -65534,7 +66036,7 @@
         <v>2381</v>
       </c>
       <c r="I290" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J290" s="39"/>
@@ -65568,7 +66070,7 @@
         <v>2382</v>
       </c>
       <c r="I291" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="J291" s="39"/>
@@ -65620,7 +66122,7 @@
         <v>1865</v>
       </c>
       <c r="I292" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="J292" s="39"/>
@@ -65684,7 +66186,7 @@
         <v>2452</v>
       </c>
       <c r="I293" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J293" s="39"/>
@@ -65716,7 +66218,7 @@
         <v>1752</v>
       </c>
       <c r="I294" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J294" s="39"/>
@@ -65847,7 +66349,7 @@
         <v>1978</v>
       </c>
       <c r="I295" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J295" s="39"/>
@@ -65969,7 +66471,7 @@
         <v>2383</v>
       </c>
       <c r="I296" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J296" s="39"/>
@@ -66001,7 +66503,7 @@
         <v>2384</v>
       </c>
       <c r="I297" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J297" s="39"/>
@@ -66033,7 +66535,7 @@
         <v>2385</v>
       </c>
       <c r="I298" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="J298" s="39"/>
@@ -66085,7 +66587,7 @@
         <v>2386</v>
       </c>
       <c r="I299" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J299" s="39"/>
@@ -66117,7 +66619,7 @@
         <v>2387</v>
       </c>
       <c r="I300" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="J300" s="39"/>
@@ -66196,7 +66698,7 @@
         <v>2454</v>
       </c>
       <c r="I301" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J301" s="39"/>
@@ -66233,7 +66735,7 @@
         <v>2409</v>
       </c>
       <c r="I302" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J302" s="39"/>
@@ -66262,7 +66764,7 @@
         <v>2388</v>
       </c>
       <c r="I303" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J303" s="39"/>
@@ -66299,7 +66801,7 @@
         <v>2389</v>
       </c>
       <c r="I304" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K304" s="40" t="s">
@@ -66335,7 +66837,7 @@
         <v>2455</v>
       </c>
       <c r="I305" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="J305" s="39"/>
@@ -66604,7 +67106,7 @@
         <v>1844</v>
       </c>
       <c r="I306" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J306" s="39"/>
@@ -66639,7 +67141,7 @@
         <v>2390</v>
       </c>
       <c r="I307" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J307" s="39"/>
@@ -66668,7 +67170,7 @@
         <v>2391</v>
       </c>
       <c r="I308" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J308" s="39"/>
@@ -66714,7 +67216,7 @@
         <v>2392</v>
       </c>
       <c r="I309" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J309" s="39"/>
@@ -66746,7 +67248,7 @@
         <v>2456</v>
       </c>
       <c r="I310" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J310" s="39"/>
@@ -66775,7 +67277,7 @@
         <v>2394</v>
       </c>
       <c r="I311" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J311" s="39"/>
@@ -66813,7 +67315,7 @@
         <v>2395</v>
       </c>
       <c r="I312" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J312" s="39"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0D94D-7E7A-4A72-AEE4-3F09ADEB49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F7BE5F-4353-416A-B1B1-FB6C8871AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abilities!$A$10:$FS$312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$KX$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$KZ$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7105" uniqueCount="2986">
   <si>
     <t>Rank</t>
   </si>
@@ -9769,13 +9769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KX174"/>
+  <dimension ref="A1:KZ174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="JT4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="KB4" sqref="KB4"/>
+      <selection pane="bottomRight" activeCell="JU8" sqref="JU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9809,14 +9809,14 @@
     <col min="277" max="277" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="278" max="278" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="279" max="279" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="280" max="292" width="9.140625" style="6"/>
-    <col min="293" max="293" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="294" max="308" width="9.140625" style="6"/>
-    <col min="309" max="309" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="310" max="16384" width="9.140625" style="6"/>
+    <col min="280" max="293" width="9.140625" style="6"/>
+    <col min="294" max="294" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="295" max="310" width="9.140625" style="6"/>
+    <col min="311" max="311" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="312" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:310" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:312" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>120</v>
       </c>
@@ -10008,25 +10008,25 @@
       <c r="JT1" s="20" t="s">
         <v>1659</v>
       </c>
-      <c r="KG1" s="60"/>
-      <c r="KH1" s="19" t="s">
+      <c r="KH1" s="60"/>
+      <c r="KI1" s="19" t="s">
         <v>1660</v>
       </c>
-      <c r="KW1" s="60"/>
-      <c r="KX1" s="19" t="s">
+      <c r="KY1" s="60"/>
+      <c r="KZ1" s="19" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="2" spans="1:310" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:312" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="JI2" s="61"/>
       <c r="JS2" s="61"/>
-      <c r="KG2" s="61"/>
-      <c r="KW2" s="61"/>
-    </row>
-    <row r="3" spans="1:310" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KH2" s="61"/>
+      <c r="KY2" s="61"/>
+    </row>
+    <row r="3" spans="1:312" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>121</v>
       </c>
@@ -10901,64 +10901,70 @@
         <v>1683</v>
       </c>
       <c r="KF3" s="21" t="s">
+        <v>2571</v>
+      </c>
+      <c r="KG3" s="21" t="s">
         <v>2570</v>
       </c>
-      <c r="KG3" s="61" t="s">
+      <c r="KH3" s="61" t="s">
         <v>1535</v>
       </c>
-      <c r="KH3" s="21" t="s">
+      <c r="KI3" s="21" t="s">
         <v>1654</v>
       </c>
-      <c r="KI3" s="21" t="s">
+      <c r="KJ3" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="KJ3" s="21" t="s">
+      <c r="KK3" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="KK3" s="21" t="s">
+      <c r="KL3" s="21" t="s">
         <v>1505</v>
       </c>
-      <c r="KL3" s="21" t="s">
+      <c r="KM3" s="21" t="s">
         <v>1500</v>
       </c>
-      <c r="KM3" s="21" t="s">
+      <c r="KN3" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="KN3" s="21" t="s">
+      <c r="KO3" s="21" t="s">
         <v>1503</v>
       </c>
-      <c r="KO3" s="21" t="s">
+      <c r="KP3" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="KP3" s="21" t="s">
+      <c r="KQ3" s="21" t="s">
         <v>1386</v>
       </c>
-      <c r="KQ3" s="21" t="s">
+      <c r="KR3" s="21" t="s">
         <v>1387</v>
       </c>
-      <c r="KR3" s="21" t="s">
+      <c r="KS3" s="21" t="s">
         <v>1385</v>
       </c>
-      <c r="KS3" s="21" t="s">
+      <c r="KT3" s="21" t="s">
         <v>1602</v>
       </c>
-      <c r="KT3" s="21" t="s">
+      <c r="KU3" s="21" t="s">
         <v>1653</v>
       </c>
-      <c r="KU3" s="21" t="s">
+      <c r="KV3" s="21" t="s">
+        <v>2572</v>
+      </c>
+      <c r="KW3" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="KV3" s="21" t="s">
+      <c r="KX3" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="KW3" s="61" t="s">
+      <c r="KY3" s="61" t="s">
         <v>1535</v>
       </c>
-      <c r="KX3" s="22" t="s">
+      <c r="KZ3" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -11378,26 +11384,26 @@
       <c r="JZ4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL4" s="6" t="s">
+      <c r="KM4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP4" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KQ4" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KR4" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX4" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KS4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ4" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -11810,22 +11816,22 @@
         <v>384</v>
       </c>
       <c r="JZ5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KC5" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU5" s="6" t="s">
+      <c r="KP5" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KR5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ5" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -12233,20 +12239,20 @@
       <c r="JX6" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP6" s="6" t="s">
+      <c r="KQ6" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX6" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KR6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ6" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
@@ -12657,20 +12663,20 @@
       <c r="JW7" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KJ7" s="6" t="s">
+      <c r="KK7" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX7" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ7" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -13054,17 +13060,17 @@
       <c r="JT8" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ8" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU8" s="6" t="s">
+      <c r="KR8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW8" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX8" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KZ8" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -13468,17 +13474,17 @@
       <c r="JT9" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ9" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU9" s="6" t="s">
+      <c r="KR9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW9" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX9" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ9" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
@@ -13885,17 +13891,17 @@
       <c r="JV10" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ10" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU10" s="6" t="s">
+      <c r="KR10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW10" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX10" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ10" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>96</v>
       </c>
@@ -14293,17 +14299,17 @@
       <c r="KD11" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU11" s="6" t="s">
+      <c r="KR11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW11" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX11" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ11" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -14689,20 +14695,20 @@
       <c r="JT12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KF12" s="6" t="s">
+      <c r="KG12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ12" s="6" t="s">
+      <c r="KR12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU12" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX12" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ12" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>97</v>
       </c>
@@ -15105,20 +15111,20 @@
       <c r="KA13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KJ13" s="6" t="s">
+      <c r="KK13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX13" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KR13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ13" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -15524,17 +15530,17 @@
       <c r="JZ14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ14" s="6" t="s">
+      <c r="KR14" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX14" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ14" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -15945,20 +15951,20 @@
       <c r="KA15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT15" s="6" t="s">
+      <c r="KR15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX15" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ15" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -16347,23 +16353,23 @@
       <c r="JZ16" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ16" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR16" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KT16" s="6" t="s">
+      <c r="KS16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU16" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX16" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ16" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -16769,20 +16775,20 @@
       <c r="KA17" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP17" s="6" t="s">
+      <c r="KQ17" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX17" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ17" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -17175,17 +17181,17 @@
       <c r="JZ18" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ18" s="6" t="s">
+      <c r="KR18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU18" s="6" t="s">
+      <c r="KW18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX18" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ18" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
@@ -17581,20 +17587,20 @@
       <c r="KD19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK19" s="6" t="s">
+      <c r="KL19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX19" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ19" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -17976,26 +17982,26 @@
       <c r="KE20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP20" s="6" t="s">
+      <c r="KM20" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KQ20" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KR20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KV20" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX20" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -18399,17 +18405,17 @@
       <c r="KA21" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ21" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU21" s="6" t="s">
+      <c r="KR21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW21" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX21" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ21" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -18815,20 +18821,20 @@
       <c r="KD22" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KO22" s="6" t="s">
+      <c r="KP22" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX22" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ22" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>100</v>
       </c>
@@ -19225,17 +19231,17 @@
       <c r="JZ23" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU23" s="6" t="s">
+      <c r="KR23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW23" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX23" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KZ23" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -19643,17 +19649,17 @@
       <c r="JZ24" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ24" s="6" t="s">
+      <c r="KR24" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU24" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX24" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ24" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -20060,20 +20066,20 @@
       <c r="JZ25" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN25" s="6" t="s">
+      <c r="KO25" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX25" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KR25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ25" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>101</v>
       </c>
@@ -20470,23 +20476,23 @@
       <c r="JZ26" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KI26" s="6" t="s">
+      <c r="KJ26" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KO26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX26" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KP26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ26" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -20874,26 +20880,29 @@
       <c r="JT27" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JV27" s="6" t="s">
+      <c r="JZ27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KK27" s="6" t="s">
+      <c r="KL27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX27" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ27" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -21283,13 +21292,10 @@
       <c r="JZ28" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO28" s="6" t="s">
+      <c r="KL28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN28" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KP28" s="6" t="s">
@@ -21298,20 +21304,23 @@
       <c r="KQ28" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS28" s="6" t="s">
+      <c r="KR28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT28" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KT28" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KU28" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX28" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ28" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -21706,23 +21715,23 @@
       <c r="JZ29" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP29" s="6" t="s">
+      <c r="KO29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ29" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX29" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KR29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ29" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -22122,20 +22131,20 @@
       <c r="KA30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ30" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU30" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX30" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ30" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -22523,17 +22532,17 @@
       <c r="JZ31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ31" s="6" t="s">
+      <c r="KR31" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU31" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX31" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ31" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -22902,17 +22911,17 @@
       <c r="JZ32" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ32" s="6" t="s">
+      <c r="KR32" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU32" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX32" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ32" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -23306,14 +23315,14 @@
       <c r="JZ33" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU33" s="6" t="s">
+      <c r="KW33" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX33" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ33" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -23727,20 +23736,20 @@
       <c r="JZ34" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KF34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ34" s="6" t="s">
+      <c r="KG34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR34" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX34" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ34" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -24131,20 +24140,20 @@
       <c r="JZ35" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM35" s="6" t="s">
+      <c r="KL35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN35" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX35" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ35" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -24531,28 +24540,34 @@
         <v>384</v>
       </c>
       <c r="JW36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR36" s="6" t="s">
+      <c r="KM36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX36" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ36" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -24930,17 +24945,17 @@
       <c r="JZ37" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU37" s="6" t="s">
+      <c r="KL37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW37" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX37" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KZ37" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -25327,17 +25342,17 @@
       <c r="JZ38" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KJ38" s="6" t="s">
+      <c r="KK38" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX38" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ38" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -25712,17 +25727,17 @@
       <c r="JZ39" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KT39" s="6" t="s">
+      <c r="KU39" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU39" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX39" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ39" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>103</v>
       </c>
@@ -26114,14 +26129,14 @@
       <c r="JZ40" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU40" s="6" t="s">
+      <c r="KW40" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX40" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ40" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -26500,14 +26515,14 @@
       <c r="JZ41" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU41" s="6" t="s">
+      <c r="KW41" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX41" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ41" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -26911,17 +26926,17 @@
       <c r="JZ42" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ42" s="6" t="s">
+      <c r="KR42" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU42" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX42" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ42" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -27302,17 +27317,17 @@
       <c r="JZ43" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK43" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU43" s="6" t="s">
+      <c r="KL43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW43" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX43" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ43" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -27692,17 +27707,17 @@
       <c r="JZ44" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS44" s="6" t="s">
+      <c r="KT44" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX44" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ44" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -28095,23 +28110,23 @@
       <c r="JZ45" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT45" s="6" t="s">
+      <c r="KN45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU45" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX45" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ45" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>105</v>
       </c>
@@ -28524,19 +28539,16 @@
       <c r="JZ46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KF46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KK46" s="6" t="s">
+      <c r="KG46" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KL46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP46" s="6" t="s">
+      <c r="KM46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO46" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KQ46" s="6" t="s">
@@ -28545,17 +28557,20 @@
       <c r="KR46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU46" s="6" t="s">
+      <c r="KS46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW46" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KV46" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KX46" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="47" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KZ46" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
@@ -28953,20 +28968,20 @@
       <c r="KB47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH47" s="6" t="s">
+      <c r="KI47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KJ47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU47" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KK47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW47" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -29360,29 +29375,29 @@
       <c r="JZ48" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KH48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KK48" s="6" t="s">
+      <c r="KI48" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KL48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM48" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KO48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX48" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KP48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ48" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -29802,20 +29817,20 @@
       <c r="JZ49" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR49" s="6" t="s">
+      <c r="KM49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS49" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX49" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ49" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>107</v>
       </c>
@@ -30188,23 +30203,23 @@
       <c r="JZ50" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN50" s="6" t="s">
+      <c r="KL50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO50" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX50" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ50" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
@@ -30596,20 +30611,20 @@
       <c r="JZ51" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS51" s="6" t="s">
+      <c r="KT51" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KT51" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KU51" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX51" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ51" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -31008,17 +31023,17 @@
       <c r="JZ52" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL52" s="6" t="s">
+      <c r="KM52" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX52" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ52" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -31369,14 +31384,14 @@
       <c r="JZ53" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU53" s="6" t="s">
+      <c r="KW53" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX53" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ53" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
@@ -31772,17 +31787,17 @@
       <c r="JZ54" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU54" s="6" t="s">
+      <c r="KR54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW54" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX54" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ54" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -32167,17 +32182,17 @@
       <c r="JZ55" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP55" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU55" s="6" t="s">
+      <c r="KQ55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW55" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX55" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ55" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -32559,20 +32574,20 @@
       <c r="KE56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL56" s="6" t="s">
+      <c r="KM56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KV56" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS56" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW56" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX56" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>111</v>
       </c>
@@ -32956,17 +32971,17 @@
       <c r="KA57" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL57" s="6" t="s">
+      <c r="KM57" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU57" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX57" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ57" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -33381,17 +33396,17 @@
       <c r="JZ58" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL58" s="6" t="s">
+      <c r="KM58" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU58" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX58" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ58" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>112</v>
       </c>
@@ -33781,17 +33796,17 @@
       <c r="JZ59" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP59" s="6" t="s">
+      <c r="KQ59" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX59" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KW59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ59" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>113</v>
       </c>
@@ -34223,26 +34238,26 @@
       <c r="KA60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK60" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KL60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT60" s="6" t="s">
+      <c r="KQ60" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KU60" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX60" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ60" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>114</v>
       </c>
@@ -34624,26 +34639,26 @@
       <c r="JZ61" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN61" s="6" t="s">
+      <c r="KL61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO61" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KV61" s="6" t="s">
+      <c r="KR61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW61" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KX61" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="62" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ61" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -35023,17 +35038,17 @@
       <c r="JZ62" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU62" s="6" t="s">
+      <c r="KQ62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW62" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX62" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KZ62" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
@@ -35420,20 +35435,20 @@
       <c r="JZ63" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KN63" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR63" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU63" s="6" t="s">
+      <c r="KO63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW63" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX63" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ63" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
@@ -35810,14 +35825,14 @@
       <c r="JZ64" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU64" s="6" t="s">
+      <c r="KW64" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX64" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ64" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
@@ -36203,17 +36218,17 @@
       <c r="JZ65" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ65" s="6" t="s">
+      <c r="KR65" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU65" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX65" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ65" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
@@ -36596,17 +36611,17 @@
       <c r="JZ66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KT66" s="6" t="s">
+      <c r="KU66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU66" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX66" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW66" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ66" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -36998,17 +37013,17 @@
       <c r="KB67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH67" s="6" t="s">
+      <c r="KI67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU67" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX67" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ67" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
@@ -37377,17 +37392,17 @@
       <c r="JZ68" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KR68" s="6" t="s">
+      <c r="KS68" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU68" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX68" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ68" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -37778,17 +37793,17 @@
       <c r="JZ69" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ69" s="6" t="s">
+      <c r="KR69" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU69" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX69" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:310" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KW69" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ69" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>116</v>
       </c>
@@ -38174,17 +38189,17 @@
       <c r="KA70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR70" s="6" t="s">
+      <c r="KS70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU70" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX70" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ70" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>117</v>
       </c>
@@ -38578,17 +38593,17 @@
       <c r="JZ71" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KP71" s="6" t="s">
+      <c r="KQ71" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU71" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX71" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ71" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
@@ -38972,17 +38987,17 @@
       <c r="JZ72" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN72" s="6" t="s">
+      <c r="KO72" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU72" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX72" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ72" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
@@ -39365,17 +39380,17 @@
       <c r="JZ73" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KS73" s="6" t="s">
+      <c r="KT73" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU73" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX73" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ73" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
@@ -39739,20 +39754,20 @@
       <c r="JZ74" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU74" s="6" t="s">
+      <c r="KL74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW74" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX74" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ74" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
@@ -40122,17 +40137,17 @@
       <c r="KB75" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KH75" s="6" t="s">
+      <c r="KI75" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU75" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX75" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ75" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
@@ -40507,14 +40522,20 @@
       <c r="JZ76" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU76" s="6" t="s">
+      <c r="KF76" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX76" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KV76" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ76" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
@@ -40906,14 +40927,14 @@
       <c r="KA77" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU77" s="6" t="s">
+      <c r="KW77" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX77" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ77" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
@@ -41297,17 +41318,17 @@
       <c r="KD78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KJ78" s="6" t="s">
+      <c r="KK78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU78" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX78" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ78" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>119</v>
       </c>
@@ -41672,14 +41693,14 @@
       <c r="JZ79" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU79" s="6" t="s">
+      <c r="KW79" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX79" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ79" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -42056,17 +42077,17 @@
       <c r="JZ80" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN80" s="6" t="s">
+      <c r="KO80" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX80" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KW80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ80" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -42450,14 +42471,14 @@
       <c r="JZ81" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU81" s="6" t="s">
+      <c r="KW81" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX81" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ81" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -42829,14 +42850,14 @@
       <c r="JZ82" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU82" s="6" t="s">
+      <c r="KW82" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX82" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ82" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -43210,26 +43231,26 @@
       <c r="JZ83" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN83" s="6" t="s">
+      <c r="KL83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO83" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KO83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX83" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KP83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ83" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -43611,14 +43632,14 @@
       <c r="JZ84" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU84" s="6" t="s">
+      <c r="KW84" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX84" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ84" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -43985,14 +44006,14 @@
       <c r="JZ85" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU85" s="6" t="s">
+      <c r="KW85" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX85" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:310" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KZ85" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -44390,14 +44411,14 @@
       <c r="JZ86" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU86" s="6" t="s">
+      <c r="KW86" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX86" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ86" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -44767,14 +44788,14 @@
       <c r="JZ87" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU87" s="6" t="s">
+      <c r="KW87" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX87" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ87" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>2985</v>
       </c>
@@ -44808,14 +44829,14 @@
       <c r="JZ88" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU88" s="6" t="s">
+      <c r="KW88" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX88" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ88" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>1632</v>
       </c>
@@ -44844,17 +44865,17 @@
       <c r="JZ89" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ89" s="6" t="s">
+      <c r="KR89" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU89" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX89" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KW89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ89" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1633</v>
       </c>
@@ -44883,14 +44904,14 @@
       <c r="JZ90" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU90" s="6" t="s">
+      <c r="KW90" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX90" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ90" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>1634</v>
       </c>
@@ -44927,17 +44948,17 @@
       <c r="JZ91" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KT91" s="6" t="s">
+      <c r="KU91" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU91" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX91" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KW91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ91" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>1641</v>
       </c>
@@ -44980,11 +45001,11 @@
       <c r="JZ92" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX92" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ92" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>1635</v>
       </c>
@@ -45022,11 +45043,11 @@
       <c r="JZ93" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX93" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ93" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>1636</v>
       </c>
@@ -45066,11 +45087,11 @@
       <c r="JZ94" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX94" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ94" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1638</v>
       </c>
@@ -45110,11 +45131,11 @@
       <c r="JZ95" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX95" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ95" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>1639</v>
       </c>
@@ -45157,11 +45178,14 @@
       <c r="JZ96" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX96" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KU96" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KZ96" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>1637</v>
       </c>
@@ -45196,11 +45220,11 @@
       <c r="JZ97" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX97" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ97" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>1640</v>
       </c>
@@ -45238,14 +45262,14 @@
       <c r="JZ98" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL98" s="6" t="s">
+      <c r="KM98" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX98" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ98" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>1965</v>
       </c>
@@ -45276,11 +45300,11 @@
       <c r="Z99" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="KX99" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ99" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1684</v>
       </c>
@@ -45320,11 +45344,11 @@
       <c r="Z100" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="KX100" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ100" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1661</v>
       </c>
@@ -45365,11 +45389,11 @@
       <c r="JZ101" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX101" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ101" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1727</v>
       </c>
@@ -45396,11 +45420,11 @@
       <c r="Z102" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KX102" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ102" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1729</v>
       </c>
@@ -45429,11 +45453,11 @@
       <c r="Z103" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KX103" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ103" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1664</v>
       </c>
@@ -45476,11 +45500,11 @@
       <c r="JZ104" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX104" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ104" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>1666</v>
       </c>
@@ -45510,14 +45534,11 @@
       <c r="JT105" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ105" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX105" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:310" ht="30" x14ac:dyDescent="0.25">
+      <c r="KZ105" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:312" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>1680</v>
       </c>
@@ -45557,14 +45578,23 @@
       <c r="JT106" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX106" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="JV106" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KP106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR106" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ106" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1536</v>
       </c>
@@ -45862,20 +45892,20 @@
       <c r="JT107" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ107" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KB107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KJ107" s="6" t="s">
+      <c r="KK107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ107" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KR107" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW107" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>1662</v>
       </c>
@@ -45915,17 +45945,20 @@
       <c r="JT108" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ108" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KB108" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX108" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="1:310" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+      <c r="KI108" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW108" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ108" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>1723</v>
       </c>
@@ -45960,8 +45993,14 @@
       <c r="Z109" s="6" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="110" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KB109" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW109" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>1663</v>
       </c>
@@ -45998,14 +46037,14 @@
       <c r="JT110" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ110" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KB110" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:310" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+      <c r="KW110" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>1945</v>
       </c>
@@ -46043,8 +46082,17 @@
       <c r="Z111" s="6" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="112" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KB111" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KR111" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW111" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>2886</v>
       </c>
@@ -46071,8 +46119,17 @@
       </c>
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
-    </row>
-    <row r="113" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KB112" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KL112" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW112" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>2887</v>
       </c>
@@ -46100,7 +46157,7 @@
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
     </row>
-    <row r="114" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>1682</v>
       </c>
@@ -46135,16 +46192,19 @@
         <v>2486</v>
       </c>
       <c r="JT114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="JZ114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX114" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:310" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+      <c r="KQ114" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="KW114" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ114" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>2894</v>
       </c>
@@ -46169,7 +46229,7 @@
       <c r="R115" s="45"/>
       <c r="S115" s="45"/>
     </row>
-    <row r="116" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>2895</v>
       </c>
@@ -46194,7 +46254,7 @@
       <c r="R116" s="45"/>
       <c r="S116" s="45"/>
     </row>
-    <row r="117" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>2896</v>
       </c>
@@ -46219,7 +46279,7 @@
       <c r="R117" s="45"/>
       <c r="S117" s="45"/>
     </row>
-    <row r="118" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>2897</v>
       </c>
@@ -46244,7 +46304,7 @@
       <c r="R118" s="45"/>
       <c r="S118" s="45"/>
     </row>
-    <row r="119" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>2898</v>
       </c>
@@ -46269,7 +46329,7 @@
       <c r="R119" s="45"/>
       <c r="S119" s="45"/>
     </row>
-    <row r="120" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>2899</v>
       </c>
@@ -46294,7 +46354,7 @@
       <c r="R120" s="45"/>
       <c r="S120" s="45"/>
     </row>
-    <row r="121" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>2900</v>
       </c>
@@ -46319,7 +46379,7 @@
       <c r="R121" s="45"/>
       <c r="S121" s="45"/>
     </row>
-    <row r="122" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>1668</v>
       </c>
@@ -46352,11 +46412,11 @@
       <c r="JZ122" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX122" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>1944</v>
       </c>
@@ -46383,11 +46443,11 @@
       <c r="Z123" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KX123" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ123" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>1669</v>
       </c>
@@ -46425,11 +46485,11 @@
       <c r="JZ124" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX124" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="125" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ124" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>1672</v>
       </c>
@@ -46473,11 +46533,11 @@
       <c r="JZ125" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX125" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="126" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ125" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>1670</v>
       </c>
@@ -46523,11 +46583,11 @@
       <c r="JZ126" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX126" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ126" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>1628</v>
       </c>
@@ -46567,11 +46627,11 @@
       <c r="JZ127" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX127" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ127" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>1627</v>
       </c>
@@ -46609,11 +46669,11 @@
       <c r="JZ128" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX128" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ128" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>1631</v>
       </c>
@@ -46656,11 +46716,11 @@
       <c r="JZ129" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX129" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ129" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>1667</v>
       </c>
@@ -46697,11 +46757,11 @@
       <c r="JZ130" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX130" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="131" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ130" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>1537</v>
       </c>
@@ -46739,11 +46799,11 @@
       <c r="JZ131" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX131" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ131" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>1468</v>
       </c>
@@ -46787,11 +46847,11 @@
       <c r="JZ132" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX132" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="133" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ132" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>1538</v>
       </c>
@@ -46824,14 +46884,14 @@
       <c r="KE133" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KV133" s="6" t="s">
+      <c r="KX133" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX133" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ133" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>1469</v>
       </c>
@@ -46863,11 +46923,11 @@
       <c r="JZ134" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX134" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="135" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ134" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>1471</v>
       </c>
@@ -46902,11 +46962,11 @@
       <c r="JZ135" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX135" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ135" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>1539</v>
       </c>
@@ -46961,35 +47021,35 @@
       <c r="KD136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KJ136" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KK136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM136" s="6" t="s">
+      <c r="KL136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KN136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KO136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP136" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP136" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KQ136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KV136" s="6" t="s">
+      <c r="KR136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KX136" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="137" spans="1:310" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KZ136" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1473</v>
       </c>
@@ -47050,9 +47110,6 @@
       <c r="KD137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK137" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KL137" s="6" t="s">
         <v>384</v>
       </c>
@@ -47060,19 +47117,22 @@
         <v>384</v>
       </c>
       <c r="KN137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO137" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP137" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KQ137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX137" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="138" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KR137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ137" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>1540</v>
       </c>
@@ -47109,11 +47169,11 @@
       <c r="JZ138" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX138" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="139" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ138" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>1475</v>
       </c>
@@ -47148,11 +47208,11 @@
       <c r="JZ139" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX139" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="140" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ139" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>1541</v>
       </c>
@@ -47181,11 +47241,11 @@
       <c r="JZ140" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX140" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="141" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ140" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>1477</v>
       </c>
@@ -47218,11 +47278,11 @@
       <c r="JZ141" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX141" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ141" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>1478</v>
       </c>
@@ -47255,11 +47315,11 @@
       <c r="JZ142" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX142" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ142" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>1542</v>
       </c>
@@ -47289,11 +47349,11 @@
       <c r="JZ143" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX143" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ143" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>1480</v>
       </c>
@@ -47336,20 +47396,20 @@
       <c r="KB144" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KJ144" s="6" t="s">
+      <c r="KK144" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX144" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="145" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KL144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ144" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>1543</v>
       </c>
@@ -47381,11 +47441,11 @@
       <c r="JZ145" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX145" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ145" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>1481</v>
       </c>
@@ -47420,11 +47480,11 @@
       <c r="JZ146" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX146" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="147" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ146" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>1545</v>
       </c>
@@ -47458,11 +47518,11 @@
       <c r="JZ147" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX147" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ147" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>1726</v>
       </c>
@@ -47483,11 +47543,11 @@
       <c r="Z148" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="KX148" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ148" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>1544</v>
       </c>
@@ -47523,11 +47583,11 @@
       <c r="JZ149" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX149" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ149" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>1485</v>
       </c>
@@ -47556,11 +47616,11 @@
       <c r="JZ150" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX150" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ150" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>1685</v>
       </c>
@@ -47592,11 +47652,11 @@
       <c r="Z151" s="6" t="s">
         <v>2488</v>
       </c>
-      <c r="KX151" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="152" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ151" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1546</v>
       </c>
@@ -47631,11 +47691,11 @@
       <c r="JZ152" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX152" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ152" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>1487</v>
       </c>
@@ -47664,11 +47724,11 @@
       <c r="JZ153" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX153" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="154" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ153" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>1489</v>
       </c>
@@ -47706,11 +47766,11 @@
       <c r="JZ154" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX154" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ154" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>1488</v>
       </c>
@@ -47750,11 +47810,11 @@
       <c r="JZ155" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX155" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ155" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>1490</v>
       </c>
@@ -47800,11 +47860,11 @@
       <c r="KB156" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX156" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ156" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>1491</v>
       </c>
@@ -47842,11 +47902,11 @@
       <c r="JZ157" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX157" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ157" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>1731</v>
       </c>
@@ -47880,11 +47940,11 @@
       <c r="Z158" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="KX158" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="159" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ158" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>1492</v>
       </c>
@@ -47913,11 +47973,11 @@
       <c r="JZ159" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX159" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ159" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>1493</v>
       </c>
@@ -47949,11 +48009,11 @@
       <c r="JZ160" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX160" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ160" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1734</v>
       </c>
@@ -47987,11 +48047,11 @@
       <c r="Z161" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="KX161" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="162" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ161" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>1494</v>
       </c>
@@ -48028,11 +48088,11 @@
       <c r="JZ162" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX162" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="163" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ162" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>1495</v>
       </c>
@@ -48078,11 +48138,11 @@
       <c r="JZ163" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX163" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ163" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>1738</v>
       </c>
@@ -48116,11 +48176,11 @@
       <c r="Z164" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KX164" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="KZ164" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>2935</v>
       </c>
@@ -48143,7 +48203,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="166" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>2943</v>
       </c>
@@ -48166,7 +48226,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="167" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>2945</v>
       </c>
@@ -48189,7 +48249,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="168" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2952</v>
       </c>
@@ -48212,7 +48272,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="169" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>2930</v>
       </c>
@@ -48235,7 +48295,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="170" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>2931</v>
       </c>
@@ -48258,7 +48318,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="171" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>2933</v>
       </c>
@@ -48281,7 +48341,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="172" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>2934</v>
       </c>
@@ -48304,7 +48364,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="173" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>2932</v>
       </c>
@@ -48327,7 +48387,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="174" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>2936</v>
       </c>
@@ -48351,15 +48411,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KX155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KX155">
-      <sortCondition ref="I101:I155"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KX174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KZ174">
     <sortCondition ref="I171:I174"/>
   </sortState>
-  <conditionalFormatting sqref="A1:JH1 KX1:XFD1 JT1:KV1 JJ1:JR1">
+  <conditionalFormatting sqref="A1:JH1 KZ1:XFD1 JT1:KX1 JJ1:JR1">
     <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="RELATIONSHIP:">
       <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",A1)))</formula>
     </cfRule>
@@ -48376,21 +48431,21 @@
       <formula>NOT(ISERROR(SEARCH("NODE:",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KW1">
+  <conditionalFormatting sqref="KY1">
     <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="RELATIONSHIP:">
-      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",KW1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",KY1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="TRAIT:">
-      <formula>NOT(ISERROR(SEARCH("TRAIT:",KW1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",KY1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"ignore"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="STATIC:">
-      <formula>NOT(ISERROR(SEARCH("STATIC:",KW1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("STATIC:",KY1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="NODE:">
-      <formula>NOT(ISERROR(SEARCH("NODE:",KW1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NODE:",KY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS1">
@@ -48437,10 +48492,10 @@
   <dimension ref="A1:GS1379"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="17" ySplit="10" topLeftCell="CW11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CX11" sqref="CX11"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F7BE5F-4353-416A-B1B1-FB6C8871AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE9282-1833-4EA2-B6B7-7C44CB813874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abilities!$A$10:$FS$312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$KZ$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">characters!$A$3:$LD$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7105" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="2990">
   <si>
     <t>Rank</t>
   </si>
@@ -8991,6 +8991,18 @@
   </si>
   <si>
     <t>Sgt_Slaughter</t>
+  </si>
+  <si>
+    <t>Sparkbit</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>ABBAacidbloblauncher</t>
+  </si>
+  <si>
+    <t>bullpup</t>
   </si>
 </sst>
 </file>
@@ -9769,13 +9781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KZ174"/>
+  <dimension ref="A1:LD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JT4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="KB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="JU8" sqref="JU8"/>
+      <selection pane="bottomRight" activeCell="KZ8" sqref="KZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9809,14 +9821,14 @@
     <col min="277" max="277" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="278" max="278" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="279" max="279" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="280" max="293" width="9.140625" style="6"/>
-    <col min="294" max="294" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="295" max="310" width="9.140625" style="6"/>
-    <col min="311" max="311" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="312" max="16384" width="9.140625" style="6"/>
+    <col min="280" max="294" width="9.140625" style="6"/>
+    <col min="295" max="295" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="296" max="314" width="9.140625" style="6"/>
+    <col min="315" max="315" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="316" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:312" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:316" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>120</v>
       </c>
@@ -10008,25 +10020,25 @@
       <c r="JT1" s="20" t="s">
         <v>1659</v>
       </c>
-      <c r="KH1" s="60"/>
-      <c r="KI1" s="19" t="s">
+      <c r="KI1" s="60"/>
+      <c r="KJ1" s="19" t="s">
         <v>1660</v>
       </c>
-      <c r="KY1" s="60"/>
-      <c r="KZ1" s="19" t="s">
+      <c r="LC1" s="60"/>
+      <c r="LD1" s="19" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="2" spans="1:312" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:316" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="JI2" s="61"/>
       <c r="JS2" s="61"/>
-      <c r="KH2" s="61"/>
-      <c r="KY2" s="61"/>
-    </row>
-    <row r="3" spans="1:312" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KI2" s="61"/>
+      <c r="LC2" s="61"/>
+    </row>
+    <row r="3" spans="1:316" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>121</v>
       </c>
@@ -10880,91 +10892,103 @@
         <v>1609</v>
       </c>
       <c r="JY3" s="21" t="s">
+        <v>2989</v>
+      </c>
+      <c r="JZ3" s="21" t="s">
         <v>1384</v>
       </c>
-      <c r="JZ3" s="21" t="s">
+      <c r="KA3" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="KA3" s="21" t="s">
+      <c r="KB3" s="21" t="s">
         <v>1505</v>
       </c>
-      <c r="KB3" s="21" t="s">
+      <c r="KC3" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="KC3" s="21" t="s">
+      <c r="KD3" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="KD3" s="21" t="s">
+      <c r="KE3" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="KE3" s="21" t="s">
+      <c r="KF3" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="KF3" s="21" t="s">
+      <c r="KG3" s="21" t="s">
         <v>2571</v>
       </c>
-      <c r="KG3" s="21" t="s">
+      <c r="KH3" s="21" t="s">
         <v>2570</v>
       </c>
-      <c r="KH3" s="61" t="s">
+      <c r="KI3" s="61" t="s">
         <v>1535</v>
       </c>
-      <c r="KI3" s="21" t="s">
+      <c r="KJ3" s="21" t="s">
         <v>1654</v>
       </c>
-      <c r="KJ3" s="21" t="s">
+      <c r="KK3" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="KK3" s="21" t="s">
+      <c r="KL3" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="KL3" s="21" t="s">
+      <c r="KM3" s="21" t="s">
         <v>1505</v>
       </c>
-      <c r="KM3" s="21" t="s">
+      <c r="KN3" s="21" t="s">
         <v>1500</v>
       </c>
-      <c r="KN3" s="21" t="s">
+      <c r="KO3" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="KO3" s="21" t="s">
+      <c r="KP3" s="21" t="s">
         <v>1503</v>
       </c>
-      <c r="KP3" s="21" t="s">
+      <c r="KQ3" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="KQ3" s="21" t="s">
+      <c r="KR3" s="21" t="s">
         <v>1386</v>
       </c>
-      <c r="KR3" s="21" t="s">
+      <c r="KS3" s="21" t="s">
         <v>1387</v>
       </c>
-      <c r="KS3" s="21" t="s">
+      <c r="KT3" s="21" t="s">
         <v>1385</v>
       </c>
-      <c r="KT3" s="21" t="s">
+      <c r="KU3" s="21" t="s">
         <v>1602</v>
       </c>
-      <c r="KU3" s="21" t="s">
+      <c r="KV3" s="21" t="s">
         <v>1653</v>
       </c>
-      <c r="KV3" s="21" t="s">
+      <c r="KW3" s="21" t="s">
         <v>2572</v>
       </c>
-      <c r="KW3" s="21" t="s">
+      <c r="KX3" s="21" t="s">
+        <v>2986</v>
+      </c>
+      <c r="KY3" s="21" t="s">
+        <v>2988</v>
+      </c>
+      <c r="KZ3" s="21" t="s">
+        <v>2987</v>
+      </c>
+      <c r="LA3" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="KX3" s="21" t="s">
+      <c r="LB3" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="KY3" s="61" t="s">
+      <c r="LC3" s="61" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ3" s="22" t="s">
+      <c r="LD3" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -11378,32 +11402,32 @@
       <c r="JT4" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY4" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM4" s="6" t="s">
+      <c r="KN4" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ4" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR4" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KS4" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KW4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ4" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KT4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD4" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -11815,23 +11839,23 @@
       <c r="JT5" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ5" s="6" t="s">
+      <c r="KA5" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP5" s="6" t="s">
+      <c r="KQ5" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KS5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD5" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -12239,20 +12263,20 @@
       <c r="JX6" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ6" s="6" t="s">
+      <c r="KR6" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ6" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KS6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD6" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
@@ -12663,20 +12687,20 @@
       <c r="JW7" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK7" s="6" t="s">
+      <c r="KL7" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ7" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD7" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -13060,17 +13084,110 @@
       <c r="JT8" s="6" t="s">
         <v>1535</v>
       </c>
+      <c r="JU8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JV8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JW8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JX8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JZ8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KD8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KG8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KH8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KJ8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KK8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ8" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="KR8" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="KS8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV8" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="KW8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KX8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KY8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KZ8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA8" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ8" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LB8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD8" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -13474,17 +13591,17 @@
       <c r="JT9" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR9" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW9" s="6" t="s">
+      <c r="KS9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA9" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ9" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD9" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
@@ -13891,17 +14008,17 @@
       <c r="JV10" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR10" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW10" s="6" t="s">
+      <c r="KS10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA10" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ10" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD10" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>96</v>
       </c>
@@ -14293,23 +14410,26 @@
       <c r="JT11" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD11" s="6" t="s">
+      <c r="JW11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KA11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE11" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW11" s="6" t="s">
+      <c r="KS11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA11" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ11" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD11" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -14693,22 +14813,28 @@
       <c r="JG12" s="7"/>
       <c r="JH12" s="7"/>
       <c r="JT12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JU12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="JY12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KH12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KG12" s="6" t="s">
+      <c r="KS12" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR12" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="KW12" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ12" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD12" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>97</v>
       </c>
@@ -15108,23 +15234,23 @@
       <c r="JT13" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KA13" s="6" t="s">
+      <c r="KB13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK13" s="6" t="s">
+      <c r="KL13" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ13" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KS13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD13" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -15524,23 +15650,23 @@
       <c r="JT14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY14" s="6" t="s">
+      <c r="JZ14" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR14" s="6" t="s">
+      <c r="KA14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS14" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ14" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD14" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -15945,26 +16071,26 @@
       <c r="JV15" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ15" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU15" s="6" t="s">
+      <c r="KS15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV15" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ15" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD15" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -16350,26 +16476,26 @@
       <c r="JT16" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR16" s="6" t="s">
+      <c r="KA16" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KS16" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KU16" s="6" t="s">
+      <c r="KT16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV16" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ16" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD16" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -16769,26 +16895,26 @@
       <c r="JT17" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ17" s="6" t="s">
+      <c r="KA17" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KA17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ17" s="6" t="s">
+      <c r="KB17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR17" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ17" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA17" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD17" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -17178,20 +17304,20 @@
       <c r="JT18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ18" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR18" s="6" t="s">
+      <c r="KA18" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW18" s="6" t="s">
+      <c r="LA18" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ18" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD18" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
@@ -17581,26 +17707,26 @@
       <c r="JT19" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD19" s="6" t="s">
+      <c r="KA19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL19" s="6" t="s">
+      <c r="KM19" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ19" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD19" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -17979,29 +18105,29 @@
       <c r="JF20" s="7"/>
       <c r="JG20" s="7"/>
       <c r="JH20" s="7"/>
-      <c r="KE20" s="6" t="s">
+      <c r="KF20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ20" s="6" t="s">
+      <c r="KN20" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KR20" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KS20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT20" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW20" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX20" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LB20" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -18396,26 +18522,26 @@
       <c r="JW21" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY21" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ21" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KA21" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KR21" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW21" s="6" t="s">
+      <c r="KB21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS21" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA21" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ21" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD21" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -18815,26 +18941,26 @@
       <c r="JT22" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD22" s="6" t="s">
+      <c r="KA22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE22" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP22" s="6" t="s">
+      <c r="KQ22" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW22" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ22" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA22" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD22" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>100</v>
       </c>
@@ -19228,20 +19354,20 @@
       <c r="JX23" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW23" s="6" t="s">
+      <c r="KA23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS23" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA23" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ23" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LD23" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -19643,23 +19769,23 @@
       <c r="JT24" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY24" s="6" t="s">
+      <c r="JZ24" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ24" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR24" s="6" t="s">
+      <c r="KA24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS24" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW24" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ24" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD24" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -20060,26 +20186,26 @@
       <c r="JW25" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY25" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ25" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KO25" s="6" t="s">
+      <c r="KA25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP25" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW25" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ25" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="KS25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA25" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD25" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>101</v>
       </c>
@@ -20473,26 +20599,26 @@
       <c r="JT26" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ26" s="6" t="s">
+      <c r="KA26" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KJ26" s="6" t="s">
+      <c r="KK26" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ26" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KQ26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA26" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD26" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -20880,29 +21006,29 @@
       <c r="JT27" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF27" s="6" t="s">
+      <c r="KA27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KG27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KV27" s="6" t="s">
+      <c r="KM27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW27" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW27" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ27" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD27" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -21289,16 +21415,13 @@
       <c r="JW28" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP28" s="6" t="s">
+      <c r="KA28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO28" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KQ28" s="6" t="s">
@@ -21307,20 +21430,23 @@
       <c r="KR28" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KT28" s="6" t="s">
+      <c r="KS28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU28" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ28" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KV28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD28" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -21709,29 +21835,29 @@
       <c r="JW29" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY29" s="6" t="s">
+      <c r="JZ29" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ29" s="6" t="s">
+      <c r="KA29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR29" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW29" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ29" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KS29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD29" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -22125,26 +22251,26 @@
       <c r="JT30" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ30" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR30" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KS30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT30" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW30" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ30" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD30" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -22529,20 +22655,20 @@
       <c r="JX31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ31" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR31" s="6" t="s">
+      <c r="KA31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS31" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW31" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ31" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD31" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -22908,20 +23034,20 @@
       <c r="JT32" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ32" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR32" s="6" t="s">
+      <c r="KA32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS32" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW32" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ32" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD32" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -23312,17 +23438,17 @@
       <c r="JV33" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ33" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW33" s="6" t="s">
+      <c r="KA33" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA33" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ33" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD33" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -23733,23 +23859,23 @@
       <c r="JX34" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR34" s="6" t="s">
+      <c r="KA34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KH34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS34" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ34" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD34" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -24137,23 +24263,23 @@
       <c r="JT35" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN35" s="6" t="s">
+      <c r="KA35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO35" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW35" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ35" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD35" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -24542,32 +24668,32 @@
       <c r="JW36" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF36" s="6" t="s">
+      <c r="KA36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KG36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KP36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KV36" s="6" t="s">
+      <c r="KN36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KW36" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ36" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD36" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -24942,20 +25068,20 @@
       <c r="JU37" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL37" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW37" s="6" t="s">
+      <c r="KA37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM37" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA37" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ37" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LD37" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -25339,20 +25465,20 @@
       <c r="JT38" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KK38" s="6" t="s">
+      <c r="KA38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL38" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ38" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD38" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -25724,20 +25850,20 @@
       <c r="JT39" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ39" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU39" s="6" t="s">
+      <c r="KA39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV39" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW39" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ39" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD39" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>103</v>
       </c>
@@ -26123,20 +26249,20 @@
       <c r="JT40" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY40" s="6" t="s">
+      <c r="JZ40" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ40" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW40" s="6" t="s">
+      <c r="KA40" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA40" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ40" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD40" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -26512,17 +26638,17 @@
       <c r="JT41" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ41" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW41" s="6" t="s">
+      <c r="KA41" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA41" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ41" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD41" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -26923,20 +27049,20 @@
       <c r="JW42" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ42" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR42" s="6" t="s">
+      <c r="KA42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS42" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW42" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ42" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA42" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD42" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -27314,20 +27440,20 @@
       <c r="JT43" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ43" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL43" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW43" s="6" t="s">
+      <c r="KA43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM43" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA43" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ43" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD43" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -27704,20 +27830,20 @@
       <c r="JV44" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT44" s="6" t="s">
+      <c r="KA44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU44" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ44" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD44" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -28107,26 +28233,26 @@
       <c r="JT45" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU45" s="6" t="s">
+      <c r="KA45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV45" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ45" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD45" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>105</v>
       </c>
@@ -28536,22 +28662,19 @@
       <c r="JT46" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KG46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL46" s="6" t="s">
+      <c r="KA46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KH46" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KM46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KO46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ46" s="6" t="s">
+      <c r="KN46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP46" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KR46" s="6" t="s">
@@ -28560,17 +28683,20 @@
       <c r="KS46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KW46" s="6" t="s">
+      <c r="KT46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA46" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KX46" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ46" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LB46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD46" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
@@ -28962,26 +29088,26 @@
       <c r="JT47" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB47" s="6" t="s">
+      <c r="KA47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KI47" s="6" t="s">
+      <c r="KJ47" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR47" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW47" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KL47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA47" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -29372,32 +29498,32 @@
       <c r="JW48" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KI48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL48" s="6" t="s">
+      <c r="KA48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KJ48" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KM48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN48" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ48" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD48" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -29814,23 +29940,23 @@
       <c r="JW49" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS49" s="6" t="s">
+      <c r="KA49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT49" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ49" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA49" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD49" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>107</v>
       </c>
@@ -30200,26 +30326,26 @@
       <c r="JT50" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO50" s="6" t="s">
+      <c r="KA50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP50" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ50" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD50" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
@@ -30608,23 +30734,23 @@
       <c r="JV51" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ51" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT51" s="6" t="s">
+      <c r="KA51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU51" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU51" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW51" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ51" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KV51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD51" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -31020,20 +31146,20 @@
       <c r="JT52" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM52" s="6" t="s">
+      <c r="KA52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN52" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW52" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ52" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA52" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD52" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -31381,17 +31507,17 @@
       <c r="JT53" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ53" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW53" s="6" t="s">
+      <c r="KA53" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA53" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ53" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD53" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
@@ -31784,20 +31910,20 @@
       <c r="JV54" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR54" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW54" s="6" t="s">
+      <c r="KA54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS54" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA54" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ54" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD54" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -32179,20 +32305,20 @@
       <c r="JX55" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ55" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ55" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW55" s="6" t="s">
+      <c r="KA55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR55" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA55" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ55" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD55" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -32571,23 +32697,23 @@
       <c r="JF56" s="7"/>
       <c r="JG56" s="7"/>
       <c r="JH56" s="7"/>
-      <c r="KE56" s="6" t="s">
+      <c r="KF56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KM56" s="6" t="s">
+      <c r="KN56" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX56" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KT56" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA56" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LB56" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>111</v>
       </c>
@@ -32965,23 +33091,23 @@
       <c r="JT57" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ57" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA57" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KM57" s="6" t="s">
+      <c r="KB57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN57" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW57" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ57" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD57" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -33393,20 +33519,20 @@
       <c r="JT58" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ58" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM58" s="6" t="s">
+      <c r="KA58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN58" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW58" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ58" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD58" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>112</v>
       </c>
@@ -33793,20 +33919,20 @@
       <c r="JU59" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ59" s="6" t="s">
+      <c r="KA59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR59" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ59" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA59" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD59" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>113</v>
       </c>
@@ -34232,32 +34358,32 @@
       <c r="JT60" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ60" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL60" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KM60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN60" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ60" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KR60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD60" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>114</v>
       </c>
@@ -34633,32 +34759,32 @@
       <c r="JT61" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY61" s="6" t="s">
+      <c r="JZ61" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO61" s="6" t="s">
+      <c r="KA61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP61" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX61" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ61" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KS61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LB61" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD61" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -35035,20 +35161,20 @@
       <c r="JW62" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KQ62" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW62" s="6" t="s">
+      <c r="KA62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA62" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ62" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LD62" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
@@ -35432,23 +35558,23 @@
       <c r="JT63" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ63" s="6" t="s">
+      <c r="KA63" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KO63" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS63" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW63" s="6" t="s">
+      <c r="KP63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA63" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ63" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD63" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
@@ -35822,17 +35948,17 @@
       <c r="JT64" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ64" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW64" s="6" t="s">
+      <c r="KA64" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA64" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ64" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD64" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
@@ -36215,20 +36341,20 @@
       <c r="JW65" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ65" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR65" s="6" t="s">
+      <c r="KA65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS65" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW65" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ65" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA65" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD65" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
@@ -36608,20 +36734,20 @@
       <c r="JT66" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ66" s="6" t="s">
+      <c r="KA66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KU66" s="6" t="s">
+      <c r="KV66" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW66" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ66" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA66" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD66" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -37007,23 +37133,23 @@
       <c r="JT67" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ67" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB67" s="6" t="s">
+      <c r="KA67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KI67" s="6" t="s">
+      <c r="KJ67" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW67" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ67" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD67" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
@@ -37389,20 +37515,20 @@
       <c r="JT68" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ68" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS68" s="6" t="s">
+      <c r="KA68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT68" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW68" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ68" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD68" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -37790,20 +37916,20 @@
       <c r="JT69" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ69" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR69" s="6" t="s">
+      <c r="KA69" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS69" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW69" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ69" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:312" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="LA69" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD69" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:316" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>116</v>
       </c>
@@ -38183,23 +38309,23 @@
       <c r="JT70" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ70" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KB70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KS70" s="6" t="s">
+      <c r="KT70" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW70" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ70" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA70" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD70" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>117</v>
       </c>
@@ -38587,23 +38713,23 @@
       <c r="JT71" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JY71" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ71" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KQ71" s="6" t="s">
+      <c r="KA71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KR71" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW71" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ71" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA71" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD71" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
@@ -38984,20 +39110,20 @@
       <c r="JV72" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ72" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO72" s="6" t="s">
+      <c r="KA72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP72" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW72" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ72" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA72" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD72" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
@@ -39377,20 +39503,20 @@
       <c r="JT73" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ73" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KT73" s="6" t="s">
+      <c r="KA73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KU73" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW73" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ73" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD73" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
@@ -39748,26 +39874,26 @@
       <c r="JT74" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JY74" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ74" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR74" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW74" s="6" t="s">
+      <c r="KA74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS74" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA74" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ74" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD74" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
@@ -40131,23 +40257,23 @@
       <c r="JT75" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ75" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB75" s="6" t="s">
+      <c r="KA75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC75" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KI75" s="6" t="s">
+      <c r="KJ75" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW75" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ75" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD75" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
@@ -40519,23 +40645,23 @@
       <c r="JT76" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ76" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KF76" s="6" t="s">
+      <c r="KA76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KG76" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KV76" s="6" t="s">
+      <c r="KW76" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW76" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ76" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD76" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
@@ -40921,20 +41047,20 @@
       <c r="JT77" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ77" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA77" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KW77" s="6" t="s">
+      <c r="KB77" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA77" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ77" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD77" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
@@ -41312,23 +41438,23 @@
       <c r="JT78" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ78" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KD78" s="6" t="s">
+      <c r="KA78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK78" s="6" t="s">
+      <c r="KL78" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW78" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ78" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD78" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>119</v>
       </c>
@@ -41690,17 +41816,17 @@
       <c r="JT79" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ79" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW79" s="6" t="s">
+      <c r="KA79" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA79" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ79" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD79" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -42074,20 +42200,20 @@
       <c r="JT80" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO80" s="6" t="s">
+      <c r="KA80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP80" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ80" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LA80" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD80" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -42468,17 +42594,17 @@
       <c r="JW81" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ81" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW81" s="6" t="s">
+      <c r="KA81" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA81" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ81" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD81" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -42847,17 +42973,17 @@
       <c r="JV82" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ82" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW82" s="6" t="s">
+      <c r="KA82" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA82" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ82" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LD82" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -43228,29 +43354,29 @@
       <c r="JW83" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KL83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KO83" s="6" t="s">
+      <c r="KA83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP83" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KS83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW83" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ83" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="KQ83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD83" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -43626,20 +43752,20 @@
       <c r="JT84" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JY84" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ84" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KW84" s="6" t="s">
+      <c r="KA84" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA84" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ84" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD84" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -44003,17 +44129,17 @@
       <c r="JT85" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ85" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW85" s="6" t="s">
+      <c r="KA85" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA85" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ85" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:312" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="LD85" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:316" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -44408,17 +44534,17 @@
       <c r="JV86" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ86" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW86" s="6" t="s">
+      <c r="KA86" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA86" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ86" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD86" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -44782,20 +44908,20 @@
       <c r="JT87" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JY87" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ87" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KW87" s="6" t="s">
+      <c r="KA87" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA87" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ87" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD87" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>2985</v>
       </c>
@@ -44826,17 +44952,17 @@
       <c r="JT88" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ88" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW88" s="6" t="s">
+      <c r="KA88" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA88" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ88" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD88" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>1632</v>
       </c>
@@ -44862,20 +44988,20 @@
       <c r="JT89" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ89" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR89" s="6" t="s">
+      <c r="KA89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS89" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW89" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ89" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA89" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD89" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1633</v>
       </c>
@@ -44901,17 +45027,17 @@
       <c r="JT90" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ90" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW90" s="6" t="s">
+      <c r="KA90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA90" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ90" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD90" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>1634</v>
       </c>
@@ -44945,20 +45071,20 @@
       <c r="JV91" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ91" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU91" s="6" t="s">
+      <c r="KA91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV91" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW91" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ91" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD91" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>1641</v>
       </c>
@@ -44998,14 +45124,14 @@
       <c r="JT92" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ92" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ92" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA92" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD92" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>1635</v>
       </c>
@@ -45040,14 +45166,14 @@
       <c r="JT93" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ93" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ93" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA93" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD93" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>1636</v>
       </c>
@@ -45084,14 +45210,14 @@
       <c r="JT94" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ94" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ94" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA94" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD94" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1638</v>
       </c>
@@ -45128,14 +45254,14 @@
       <c r="JT95" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ95" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ95" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA95" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD95" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>1639</v>
       </c>
@@ -45175,17 +45301,17 @@
       <c r="JT96" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ96" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KU96" s="6" t="s">
+      <c r="KA96" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KV96" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ96" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD96" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>1637</v>
       </c>
@@ -45217,14 +45343,14 @@
       <c r="JT97" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ97" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ97" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA97" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD97" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>1640</v>
       </c>
@@ -45259,17 +45385,17 @@
       <c r="JT98" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ98" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KM98" s="6" t="s">
+      <c r="KA98" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KN98" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ98" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD98" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>1965</v>
       </c>
@@ -45300,11 +45426,11 @@
       <c r="Z99" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="KZ99" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD99" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1684</v>
       </c>
@@ -45344,11 +45470,11 @@
       <c r="Z100" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="KZ100" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD100" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1661</v>
       </c>
@@ -45386,14 +45512,14 @@
       <c r="JT101" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ101" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ101" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA101" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD101" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1727</v>
       </c>
@@ -45420,11 +45546,11 @@
       <c r="Z102" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KZ102" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD102" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1729</v>
       </c>
@@ -45453,11 +45579,11 @@
       <c r="Z103" s="6" t="s">
         <v>2486</v>
       </c>
-      <c r="KZ103" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD103" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1664</v>
       </c>
@@ -45497,14 +45623,14 @@
       <c r="JT104" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ104" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ104" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA104" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD104" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>1666</v>
       </c>
@@ -45534,11 +45660,11 @@
       <c r="JT105" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KZ105" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:312" ht="30" x14ac:dyDescent="0.25">
+      <c r="LD105" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:316" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>1680</v>
       </c>
@@ -45581,20 +45707,20 @@
       <c r="JV106" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KP106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KR106" s="6" t="s">
+      <c r="KQ106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KS106" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ106" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="LA106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD106" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1536</v>
       </c>
@@ -45892,20 +46018,20 @@
       <c r="JT107" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KB107" s="6" t="s">
+      <c r="KC107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KK107" s="6" t="s">
+      <c r="KL107" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR107" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KW107" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KS107" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LA107" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>1662</v>
       </c>
@@ -45945,20 +46071,20 @@
       <c r="JT108" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KB108" s="6" t="s">
+      <c r="KC108" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KI108" s="6" t="s">
+      <c r="KJ108" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW108" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ108" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA108" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD108" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>1723</v>
       </c>
@@ -45993,14 +46119,14 @@
       <c r="Z109" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="KB109" s="6" t="s">
+      <c r="KC109" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW109" s="6" t="s">
+      <c r="LA109" s="6" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="110" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>1663</v>
       </c>
@@ -46037,14 +46163,14 @@
       <c r="JT110" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KB110" s="6" t="s">
+      <c r="KC110" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW110" s="6" t="s">
+      <c r="LA110" s="6" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="111" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>1945</v>
       </c>
@@ -46082,17 +46208,17 @@
       <c r="Z111" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="KB111" s="6" t="s">
+      <c r="KC111" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KR111" s="6" t="s">
+      <c r="KS111" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW111" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA111" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>2886</v>
       </c>
@@ -46119,17 +46245,17 @@
       </c>
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
-      <c r="KB112" s="6" t="s">
+      <c r="KC112" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL112" s="6" t="s">
+      <c r="KM112" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW112" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA112" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>2887</v>
       </c>
@@ -46157,7 +46283,7 @@
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
     </row>
-    <row r="114" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>1682</v>
       </c>
@@ -46194,17 +46320,17 @@
       <c r="JT114" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ114" s="6" t="s">
+      <c r="KR114" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KW114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ114" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LA114" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD114" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>2894</v>
       </c>
@@ -46229,7 +46355,7 @@
       <c r="R115" s="45"/>
       <c r="S115" s="45"/>
     </row>
-    <row r="116" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>2895</v>
       </c>
@@ -46254,7 +46380,7 @@
       <c r="R116" s="45"/>
       <c r="S116" s="45"/>
     </row>
-    <row r="117" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>2896</v>
       </c>
@@ -46279,7 +46405,7 @@
       <c r="R117" s="45"/>
       <c r="S117" s="45"/>
     </row>
-    <row r="118" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>2897</v>
       </c>
@@ -46304,7 +46430,7 @@
       <c r="R118" s="45"/>
       <c r="S118" s="45"/>
     </row>
-    <row r="119" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>2898</v>
       </c>
@@ -46329,7 +46455,7 @@
       <c r="R119" s="45"/>
       <c r="S119" s="45"/>
     </row>
-    <row r="120" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>2899</v>
       </c>
@@ -46354,7 +46480,7 @@
       <c r="R120" s="45"/>
       <c r="S120" s="45"/>
     </row>
-    <row r="121" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>2900</v>
       </c>
@@ -46379,7 +46505,7 @@
       <c r="R121" s="45"/>
       <c r="S121" s="45"/>
     </row>
-    <row r="122" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>1668</v>
       </c>
@@ -46409,14 +46535,14 @@
       <c r="JT122" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ122" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ122" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA122" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>1944</v>
       </c>
@@ -46443,11 +46569,11 @@
       <c r="Z123" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KZ123" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD123" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>1669</v>
       </c>
@@ -46482,14 +46608,14 @@
       <c r="JT124" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ124" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="125" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA124" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD124" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>1672</v>
       </c>
@@ -46530,14 +46656,14 @@
       <c r="JX125" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ125" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ125" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="126" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA125" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD125" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>1670</v>
       </c>
@@ -46580,14 +46706,14 @@
       <c r="JV126" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ126" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ126" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA126" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD126" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>1628</v>
       </c>
@@ -46624,14 +46750,14 @@
       <c r="JT127" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ127" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ127" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA127" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD127" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>1627</v>
       </c>
@@ -46666,14 +46792,14 @@
       <c r="JT128" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ128" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ128" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA128" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD128" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>1631</v>
       </c>
@@ -46713,14 +46839,14 @@
       <c r="JT129" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ129" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ129" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA129" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD129" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>1667</v>
       </c>
@@ -46754,14 +46880,14 @@
       <c r="JT130" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ130" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ130" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="131" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD130" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>1537</v>
       </c>
@@ -46796,14 +46922,14 @@
       <c r="JT131" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ131" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ131" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA131" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD131" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>1468</v>
       </c>
@@ -46844,14 +46970,14 @@
       <c r="JX132" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ132" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ132" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="133" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA132" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD132" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>1538</v>
       </c>
@@ -46878,20 +47004,20 @@
       <c r="JT133" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ133" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KE133" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KX133" s="6" t="s">
+      <c r="KA133" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KF133" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LB133" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KZ133" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD133" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>1469</v>
       </c>
@@ -46920,14 +47046,14 @@
       <c r="JT134" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ134" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ134" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="135" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA134" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD134" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>1471</v>
       </c>
@@ -46959,14 +47085,14 @@
       <c r="JT135" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ135" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ135" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA135" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD135" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>1539</v>
       </c>
@@ -47006,50 +47132,50 @@
       <c r="JX136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY136" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="JZ136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KA136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KC136" s="6" t="s">
+      <c r="KB136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KD136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KK136" s="6" t="s">
+      <c r="KE136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KL136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KN136" s="6" t="s">
+      <c r="KM136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KO136" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KP136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ136" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ136" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR136" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KX136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ136" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:312" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="KS136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LB136" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD136" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:316" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1473</v>
       </c>
@@ -47095,22 +47221,19 @@
       <c r="JX137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JY137" s="6" t="s">
+      <c r="JZ137" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="JZ137" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KA137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KC137" s="6" t="s">
+      <c r="KB137" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KD137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KL137" s="6" t="s">
+      <c r="KE137" s="6" t="s">
         <v>384</v>
       </c>
       <c r="KM137" s="6" t="s">
@@ -47120,19 +47243,22 @@
         <v>384</v>
       </c>
       <c r="KO137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP137" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KQ137" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="KR137" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="KZ137" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="138" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KS137" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD137" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>1540</v>
       </c>
@@ -47166,14 +47292,14 @@
       <c r="JT138" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ138" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ138" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="139" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA138" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD138" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>1475</v>
       </c>
@@ -47205,14 +47331,14 @@
       <c r="JT139" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ139" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ139" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="140" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA139" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD139" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>1541</v>
       </c>
@@ -47238,14 +47364,14 @@
       <c r="JT140" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ140" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ140" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="141" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA140" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD140" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>1477</v>
       </c>
@@ -47275,14 +47401,14 @@
       <c r="JT141" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ141" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ141" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA141" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD141" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>1478</v>
       </c>
@@ -47312,14 +47438,14 @@
       <c r="JT142" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ142" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ142" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA142" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD142" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>1542</v>
       </c>
@@ -47346,14 +47472,14 @@
       <c r="JT143" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ143" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ143" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA143" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD143" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>1480</v>
       </c>
@@ -47390,26 +47516,26 @@
       <c r="JX144" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KK144" s="6" t="s">
+      <c r="KA144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KL144" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="KL144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KN144" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ144" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="145" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KM144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KO144" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD144" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>1543</v>
       </c>
@@ -47438,14 +47564,14 @@
       <c r="JT145" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ145" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ145" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA145" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD145" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>1481</v>
       </c>
@@ -47477,14 +47603,14 @@
       <c r="JT146" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ146" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ146" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="147" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA146" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD146" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>1545</v>
       </c>
@@ -47515,14 +47641,14 @@
       <c r="JT147" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ147" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ147" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA147" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD147" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>1726</v>
       </c>
@@ -47543,11 +47669,11 @@
       <c r="Z148" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="KZ148" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD148" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>1544</v>
       </c>
@@ -47580,14 +47706,14 @@
       <c r="JT149" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ149" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ149" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA149" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD149" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>1485</v>
       </c>
@@ -47613,14 +47739,14 @@
       <c r="JT150" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ150" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ150" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA150" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD150" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>1685</v>
       </c>
@@ -47652,11 +47778,11 @@
       <c r="Z151" s="6" t="s">
         <v>2488</v>
       </c>
-      <c r="KZ151" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="152" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD151" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1546</v>
       </c>
@@ -47688,14 +47814,14 @@
       <c r="JT152" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ152" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ152" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA152" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD152" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>1487</v>
       </c>
@@ -47721,14 +47847,14 @@
       <c r="JT153" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ153" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ153" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="154" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA153" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD153" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>1489</v>
       </c>
@@ -47763,14 +47889,14 @@
       <c r="JT154" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ154" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ154" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA154" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD154" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>1488</v>
       </c>
@@ -47807,14 +47933,14 @@
       <c r="JT155" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ155" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ155" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA155" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD155" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>1490</v>
       </c>
@@ -47854,17 +47980,17 @@
       <c r="JT156" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ156" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KB156" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ156" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA156" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC156" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD156" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>1491</v>
       </c>
@@ -47899,14 +48025,14 @@
       <c r="JT157" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ157" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ157" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA157" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD157" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>1731</v>
       </c>
@@ -47940,11 +48066,11 @@
       <c r="Z158" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="KZ158" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="159" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD158" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>1492</v>
       </c>
@@ -47970,14 +48096,14 @@
       <c r="JT159" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ159" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ159" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA159" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD159" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>1493</v>
       </c>
@@ -48006,14 +48132,14 @@
       <c r="JT160" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ160" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ160" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA160" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD160" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1734</v>
       </c>
@@ -48047,11 +48173,11 @@
       <c r="Z161" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="KZ161" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="162" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD161" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>1494</v>
       </c>
@@ -48085,14 +48211,14 @@
       <c r="JT162" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ162" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ162" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="163" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA162" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD162" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>1495</v>
       </c>
@@ -48135,14 +48261,14 @@
       <c r="JW163" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="JZ163" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="KZ163" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="KA163" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="LD163" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>1738</v>
       </c>
@@ -48176,11 +48302,11 @@
       <c r="Z164" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="KZ164" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="LD164" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>2935</v>
       </c>
@@ -48203,7 +48329,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="166" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>2943</v>
       </c>
@@ -48226,7 +48352,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="167" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>2945</v>
       </c>
@@ -48249,7 +48375,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="168" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2952</v>
       </c>
@@ -48272,7 +48398,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="169" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>2930</v>
       </c>
@@ -48295,7 +48421,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="170" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>2931</v>
       </c>
@@ -48318,7 +48444,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="171" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>2933</v>
       </c>
@@ -48341,7 +48467,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="172" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>2934</v>
       </c>
@@ -48364,7 +48490,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="173" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>2932</v>
       </c>
@@ -48387,7 +48513,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="174" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>2936</v>
       </c>
@@ -48411,10 +48537,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:KZ174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:LD174">
     <sortCondition ref="I171:I174"/>
   </sortState>
-  <conditionalFormatting sqref="A1:JH1 KZ1:XFD1 JT1:KX1 JJ1:JR1">
+  <conditionalFormatting sqref="A1:JH1 LD1:XFD1 JJ1:JR1 JT1:LB1">
     <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="RELATIONSHIP:">
       <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",A1)))</formula>
     </cfRule>
@@ -48431,21 +48557,21 @@
       <formula>NOT(ISERROR(SEARCH("NODE:",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KY1">
+  <conditionalFormatting sqref="LC1">
     <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="RELATIONSHIP:">
-      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",KY1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("RELATIONSHIP:",LC1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="TRAIT:">
-      <formula>NOT(ISERROR(SEARCH("TRAIT:",KY1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRAIT:",LC1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"ignore"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="STATIC:">
-      <formula>NOT(ISERROR(SEARCH("STATIC:",KY1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("STATIC:",LC1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="NODE:">
-      <formula>NOT(ISERROR(SEARCH("NODE:",KY1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NODE:",LC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS1">
